--- a/sriramModel-nelson-atypical-patientID_58-sims-cort-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_58-sims-cort-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.373310298503946</v>
+        <v>5.387213953096635</v>
       </c>
       <c r="C2">
-        <v>5.397098304375832</v>
+        <v>5.396300302733101</v>
       </c>
       <c r="D2">
-        <v>5.354798524153532</v>
+        <v>5.397187249599354</v>
       </c>
       <c r="E2">
-        <v>5.377591877799697</v>
+        <v>5.405408586561641</v>
       </c>
       <c r="F2">
-        <v>5.40158595994374</v>
+        <v>5.393098111948054</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.442424373308096</v>
+        <v>5.469513072615992</v>
       </c>
       <c r="C3">
-        <v>5.48964904559896</v>
+        <v>5.485863777858198</v>
       </c>
       <c r="D3">
-        <v>5.407092787890232</v>
+        <v>5.487299155780574</v>
       </c>
       <c r="E3">
-        <v>5.451393657836606</v>
+        <v>5.503872905970612</v>
       </c>
       <c r="F3">
-        <v>5.501345278807889</v>
+        <v>5.479417658552078</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.507590050899172</v>
+        <v>5.547261569457441</v>
       </c>
       <c r="C4">
-        <v>5.577910828300164</v>
+        <v>5.569200521462677</v>
       </c>
       <c r="D4">
-        <v>5.457026988740846</v>
+        <v>5.570881509560926</v>
       </c>
       <c r="E4">
-        <v>5.521717319270345</v>
+        <v>5.595904775245902</v>
       </c>
       <c r="F4">
-        <v>5.59919666796299</v>
+        <v>5.559466010589257</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.569045084201478</v>
+        <v>5.620806681247656</v>
       </c>
       <c r="C5">
-        <v>5.662130457052878</v>
+        <v>5.646794695390474</v>
       </c>
       <c r="D5">
-        <v>5.504740840469944</v>
+        <v>5.64845182575346</v>
       </c>
       <c r="E5">
-        <v>5.588859596074299</v>
+        <v>5.681989976864738</v>
       </c>
       <c r="F5">
-        <v>5.695064941147852</v>
+        <v>5.633726103303061</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.627017841047874</v>
+        <v>5.69047992968958</v>
       </c>
       <c r="C6">
-        <v>5.742543728222171</v>
+        <v>5.719106662240545</v>
       </c>
       <c r="D6">
-        <v>5.550369692737623</v>
+        <v>5.720501169721208</v>
       </c>
       <c r="E6">
-        <v>5.653102853261843</v>
+        <v>5.762590388677056</v>
       </c>
       <c r="F6">
-        <v>5.788881073150328</v>
+        <v>5.702657062749283</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.681727639580765</v>
+        <v>5.756597944555989</v>
       </c>
       <c r="C7">
-        <v>5.81937608865092</v>
+        <v>5.786573650422829</v>
       </c>
       <c r="D7">
-        <v>5.594044706266839</v>
+        <v>5.787495324033348</v>
       </c>
       <c r="E7">
-        <v>5.714715660478257</v>
+        <v>5.838144652940681</v>
       </c>
       <c r="F7">
-        <v>5.880581057529527</v>
+        <v>5.766695854333195</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.733385072213398</v>
+        <v>5.819462570469994</v>
       </c>
       <c r="C8">
-        <v>5.892842751400179</v>
+        <v>5.849611074186741</v>
       </c>
       <c r="D8">
-        <v>5.635893033572625</v>
+        <v>5.84987609910124</v>
       </c>
       <c r="E8">
-        <v>5.773953214098356</v>
+        <v>5.9090695014274</v>
       </c>
       <c r="F8">
-        <v>5.970106056014902</v>
+        <v>5.826258191562621</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.782192347660813</v>
+        <v>5.87936207915762</v>
       </c>
       <c r="C9">
-        <v>5.963149322788296</v>
+        <v>5.90861368966895</v>
       </c>
       <c r="D9">
-        <v>5.676037926673432</v>
+        <v>5.908062640212762</v>
       </c>
       <c r="E9">
-        <v>5.831057818451214</v>
+        <v>5.975760905725017</v>
       </c>
       <c r="F9">
-        <v>6.057402319475666</v>
+        <v>5.881739561370313</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.828343666775257</v>
+        <v>5.936571629698927</v>
       </c>
       <c r="C10">
-        <v>6.030492219462477</v>
+        <v>5.963956541222286</v>
       </c>
       <c r="D10">
-        <v>5.714598872563827</v>
+        <v>5.962452521669551</v>
       </c>
       <c r="E10">
-        <v>5.886259344573535</v>
+        <v>6.038595022505746</v>
       </c>
       <c r="F10">
-        <v>6.142420974563731</v>
+        <v>5.933516218758992</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.872025540469453</v>
+        <v>5.991353798246191</v>
       </c>
       <c r="C11">
-        <v>6.095059044169782</v>
+        <v>6.015995893527318</v>
       </c>
       <c r="D11">
-        <v>5.751691724976092</v>
+        <v>6.013422808978553</v>
       </c>
       <c r="E11">
-        <v>5.939775199044036</v>
+        <v>6.097929153382918</v>
       </c>
       <c r="F11">
-        <v>6.225117829273721</v>
+        <v>5.98194614526439</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.913417066623033</v>
+        <v>6.043959122613626</v>
       </c>
       <c r="C12">
-        <v>6.157028937167667</v>
+        <v>6.065070176530551</v>
       </c>
       <c r="D12">
-        <v>5.78742882294002</v>
+        <v>6.06133110860824</v>
       </c>
       <c r="E12">
-        <v>5.991811412440631</v>
+        <v>6.154102677760374</v>
       </c>
       <c r="F12">
-        <v>6.30545320476489</v>
+        <v>6.02736987286458</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.952690215902203</v>
+        <v>6.094626634552166</v>
       </c>
       <c r="C13">
-        <v>6.216573000608631</v>
+        <v>6.111500616866898</v>
       </c>
       <c r="D13">
-        <v>5.821919098966937</v>
+        <v>6.106516568318868</v>
       </c>
       <c r="E13">
-        <v>6.042562932141208</v>
+        <v>6.207437636297858</v>
       </c>
       <c r="F13">
-        <v>6.383391807619933</v>
+        <v>6.070111275206432</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.990010117906635</v>
+        <v>6.143584402844637</v>
       </c>
       <c r="C14">
-        <v>6.273854491819395</v>
+        <v>6.155592459246504</v>
       </c>
       <c r="D14">
-        <v>5.855268181399298</v>
+        <v>6.149300815791715</v>
       </c>
       <c r="E14">
-        <v>6.092213800600002</v>
+        <v>6.258240028485774</v>
       </c>
       <c r="F14">
-        <v>6.45890259011726</v>
+        <v>6.110478425946506</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.025535338830839</v>
+        <v>6.19105007051739</v>
       </c>
       <c r="C15">
-        <v>6.329029210266268</v>
+        <v>6.197635750451258</v>
       </c>
       <c r="D15">
-        <v>5.88757850552524</v>
+        <v>6.189988836401906</v>
       </c>
       <c r="E15">
-        <v>6.14093744848012</v>
+        <v>6.306800611265897</v>
       </c>
       <c r="F15">
-        <v>6.53195865701296</v>
+        <v>6.148764420155426</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.059418128295472</v>
+        <v>6.237231181604919</v>
       </c>
       <c r="C16">
-        <v>6.38224591106395</v>
+        <v>6.237905865569262</v>
       </c>
       <c r="D16">
-        <v>5.918949422227151</v>
+        <v>6.22886980035216</v>
       </c>
       <c r="E16">
-        <v>6.188897144829496</v>
+        <v>6.353395391203973</v>
       </c>
       <c r="F16">
-        <v>6.602537127670375</v>
+        <v>6.185248061128004</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.091804678946919</v>
+        <v>6.282325603380305</v>
       </c>
       <c r="C17">
-        <v>6.433646660643049</v>
+        <v>6.276664210764008</v>
       </c>
       <c r="D17">
-        <v>5.949477287622087</v>
+        <v>6.266217872581726</v>
       </c>
       <c r="E17">
-        <v>6.236246390695688</v>
+        <v>6.398286302269087</v>
       </c>
       <c r="F17">
-        <v>6.670619028355254</v>
+        <v>6.220194497954476</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.122835354930166</v>
+        <v>6.326522151469412</v>
       </c>
       <c r="C18">
-        <v>6.483367017679561</v>
+        <v>6.314158980359363</v>
       </c>
       <c r="D18">
-        <v>5.979255551396609</v>
+        <v>6.302292965268872</v>
       </c>
       <c r="E18">
-        <v>6.283129234967815</v>
+        <v>6.441722001217964</v>
       </c>
       <c r="F18">
-        <v>6.736189211692418</v>
+        <v>6.253855872680496</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.152644896096025</v>
+        <v>6.370000868702831</v>
       </c>
       <c r="C19">
-        <v>6.531536251457911</v>
+        <v>6.350625836640377</v>
       </c>
       <c r="D19">
-        <v>6.008374839634755</v>
+        <v>6.337341461830859</v>
       </c>
       <c r="E19">
-        <v>6.329680549818989</v>
+        <v>6.483938561275716</v>
       </c>
       <c r="F19">
-        <v>6.799236170954741</v>
+        <v>6.286471954189145</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.181362669834435</v>
+        <v>6.412933499735156</v>
       </c>
       <c r="C20">
-        <v>6.57827766036489</v>
+        <v>6.38628852808437</v>
       </c>
       <c r="D20">
-        <v>6.036923039548756</v>
+        <v>6.371596899068551</v>
       </c>
       <c r="E20">
-        <v>6.376026316943082</v>
+        <v>6.525160079186976</v>
       </c>
       <c r="F20">
-        <v>6.859752014724092</v>
+        <v>6.318270758037368</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.209112843002658</v>
+        <v>6.455483834763845</v>
       </c>
       <c r="C21">
-        <v>6.623708844483708</v>
+        <v>6.421359401399414</v>
       </c>
       <c r="D21">
-        <v>6.064985378351449</v>
+        <v>6.405280615348254</v>
       </c>
       <c r="E21">
-        <v>6.422283930796238</v>
+        <v>6.565599211248864</v>
       </c>
       <c r="F21">
-        <v>6.917732353955429</v>
+        <v>6.349469068064492</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.236014595866071</v>
+        <v>6.497807983913273</v>
       </c>
       <c r="C22">
-        <v>6.667941954923988</v>
+        <v>6.456040148560366</v>
       </c>
       <c r="D22">
-        <v>6.092644509867115</v>
+        <v>6.438602366444496</v>
       </c>
       <c r="E22">
-        <v>6.468562468679685</v>
+        <v>6.605457864466925</v>
       </c>
       <c r="F22">
-        <v>6.97317623181343</v>
+        <v>6.380273096762333</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.262182324561313</v>
+        <v>6.540054758772128</v>
       </c>
       <c r="C23">
-        <v>6.711083907640227</v>
+        <v>6.49052209248368</v>
       </c>
       <c r="D23">
-        <v>6.119980561766918</v>
+        <v>6.471760911272978</v>
       </c>
       <c r="E23">
-        <v>6.51496296065531</v>
+        <v>6.644927555727299</v>
       </c>
       <c r="F23">
-        <v>7.02608603490282</v>
+        <v>6.410878798101899</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.287725806235724</v>
+        <v>6.582365956899599</v>
       </c>
       <c r="C24">
-        <v>6.753236651190875</v>
+        <v>6.524986810365236</v>
       </c>
       <c r="D24">
-        <v>6.147071260679994</v>
+        <v>6.504944568316054</v>
       </c>
       <c r="E24">
-        <v>6.561578617870532</v>
+        <v>6.684189999277485</v>
       </c>
       <c r="F24">
-        <v>7.076467395350603</v>
+        <v>6.441472574156067</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.312750376568228</v>
+        <v>6.62487672728818</v>
       </c>
       <c r="C25">
-        <v>6.794497315749433</v>
+        <v>6.559606632598878</v>
       </c>
       <c r="D25">
-        <v>6.173991932038827</v>
+        <v>6.538331744765204</v>
       </c>
       <c r="E25">
-        <v>6.608495110214224</v>
+        <v>6.723417600700358</v>
       </c>
       <c r="F25">
-        <v>7.124329107738363</v>
+        <v>6.472231527985028</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6.33735711537627</v>
+        <v>6.667715839695827</v>
       </c>
       <c r="C26">
-        <v>6.834958474723702</v>
+        <v>6.594545011168074</v>
       </c>
       <c r="D26">
-        <v>6.200815594236763</v>
+        <v>6.57209143843731</v>
       </c>
       <c r="E26">
-        <v>6.655790740591504</v>
+        <v>6.762773884944812</v>
       </c>
       <c r="F26">
-        <v>7.169683031808145</v>
+        <v>6.503324019435884</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6.361642976993644</v>
+        <v>6.711005995108653</v>
       </c>
       <c r="C27">
-        <v>6.874708303732966</v>
+        <v>6.629957026523343</v>
       </c>
       <c r="D27">
-        <v>6.227612998576608</v>
+        <v>6.606383713722607</v>
       </c>
       <c r="E27">
-        <v>6.703536700079423</v>
+        <v>6.80241397560934</v>
       </c>
       <c r="F27">
-        <v>7.212544008980859</v>
+        <v>6.534910081752129</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6.385700962366262</v>
+        <v>6.754864068424169</v>
       </c>
       <c r="C28">
-        <v>6.913830725857697</v>
+        <v>6.665989813613974</v>
       </c>
       <c r="D28">
-        <v>6.254452700888786</v>
+        <v>6.641360154991997</v>
       </c>
       <c r="E28">
-        <v>6.751797249597593</v>
+        <v>6.842484999086055</v>
       </c>
       <c r="F28">
-        <v>7.252929765838641</v>
+        <v>6.567141763027259</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6.409620265294871</v>
+        <v>6.799401360899423</v>
       </c>
       <c r="C29">
-        <v>6.95240567927912</v>
+        <v>6.702782928278046</v>
       </c>
       <c r="D29">
-        <v>6.281401107286147</v>
+        <v>6.67716429698596</v>
       </c>
       <c r="E29">
-        <v>6.800629913218536</v>
+        <v>6.883126497815844</v>
       </c>
       <c r="F29">
-        <v>7.290860818933442</v>
+        <v>6.600163599250915</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6.43348639979416</v>
+        <v>6.844723851010903</v>
       </c>
       <c r="C30">
-        <v>6.990509175833983</v>
+        <v>6.740468717392367</v>
       </c>
       <c r="D30">
-        <v>6.308522527842439</v>
+        <v>6.71393203358503</v>
       </c>
       <c r="E30">
-        <v>6.85008569574188</v>
+        <v>6.924470767137626</v>
       </c>
       <c r="F30">
-        <v>7.326360365697677</v>
+        <v>6.634112904270122</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6.457381348250836</v>
+        <v>6.89093242011354</v>
       </c>
       <c r="C31">
-        <v>7.028213554405948</v>
+        <v>6.779172706453975</v>
       </c>
       <c r="D31">
-        <v>6.33587920904087</v>
+        <v>6.751792005975045</v>
       </c>
       <c r="E31">
-        <v>6.90020923882499</v>
+        <v>6.966643233495827</v>
       </c>
       <c r="F31">
-        <v>7.359454168033826</v>
+        <v>6.669120144842811</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6.481383682484405</v>
+        <v>6.938123074715101</v>
       </c>
       <c r="C32">
-        <v>7.065587572873918</v>
+        <v>6.819013877793425</v>
       </c>
       <c r="D32">
-        <v>6.363531374148601</v>
+        <v>6.790865971219859</v>
       </c>
       <c r="E32">
-        <v>6.951038994963317</v>
+        <v>7.009762809275488</v>
       </c>
       <c r="F32">
-        <v>7.390170433747899</v>
+        <v>6.705309295695086</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6.505568678274024</v>
+        <v>6.986387159443243</v>
       </c>
       <c r="C33">
-        <v>7.102696598248698</v>
+        <v>6.860105030531914</v>
       </c>
       <c r="D33">
-        <v>6.39153725892752</v>
+        <v>6.831269152203584</v>
       </c>
       <c r="E33">
-        <v>7.002607413120888</v>
+        <v>7.053942202940755</v>
       </c>
       <c r="F33">
-        <v>7.418539681988976</v>
+        <v>6.742798074212519</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6.530008444868458</v>
+        <v>7.035811565770196</v>
       </c>
       <c r="C34">
-        <v>7.139602705692306</v>
+        <v>6.902553089386291</v>
       </c>
       <c r="D34">
-        <v>6.419953137534655</v>
+        <v>6.87311056983199</v>
       </c>
       <c r="E34">
-        <v>7.054941061879627</v>
+        <v>7.099288226934535</v>
       </c>
       <c r="F34">
-        <v>7.44459459823215</v>
+        <v>6.781698335738553</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6.554772020675078</v>
+        <v>7.086478912602749</v>
       </c>
       <c r="C35">
-        <v>7.176364825077571</v>
+        <v>6.946459379454819</v>
       </c>
       <c r="D35">
-        <v>6.44883334617119</v>
+        <v>6.916493358314305</v>
       </c>
       <c r="E35">
-        <v>7.108060811236905</v>
+        <v>7.145902107539054</v>
       </c>
       <c r="F35">
-        <v>7.46836987969379</v>
+        <v>6.822116270001001</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6.57992547633568</v>
+        <v>7.138467727908283</v>
       </c>
       <c r="C36">
-        <v>7.213038856894176</v>
+        <v>6.99191991039619</v>
       </c>
       <c r="D36">
-        <v>6.478230299949809</v>
+        <v>6.961515064293608</v>
       </c>
       <c r="E36">
-        <v>7.161981960407254</v>
+        <v>7.193879750219677</v>
       </c>
       <c r="F36">
-        <v>7.489902076456664</v>
+        <v>6.86415272047687</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6.605532024158444</v>
+        <v>7.191852623203203</v>
       </c>
       <c r="C37">
-        <v>7.249677751038068</v>
+        <v>7.03902564966374</v>
       </c>
       <c r="D37">
-        <v>6.508194510386858</v>
+        <v>7.008267930554345</v>
       </c>
       <c r="E37">
-        <v>7.21671437838733</v>
+        <v>7.243312001860025</v>
       </c>
       <c r="F37">
-        <v>7.509229401632286</v>
+        <v>6.907903443510704</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6.6316520923875</v>
+        <v>7.246704458027339</v>
       </c>
       <c r="C38">
-        <v>7.286331671787866</v>
+        <v>7.087862732381693</v>
       </c>
       <c r="D38">
-        <v>6.538774584335962</v>
+        <v>7.056839164905005</v>
       </c>
       <c r="E38">
-        <v>7.272262655347648</v>
+        <v>7.294284908651457</v>
       </c>
       <c r="F38">
-        <v>7.526391540122994</v>
+        <v>6.953459308455222</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6.658343412390528</v>
+        <v>7.303090487301422</v>
       </c>
       <c r="C39">
-        <v>7.323048011745467</v>
+        <v>7.13851272589423</v>
       </c>
       <c r="D39">
-        <v>6.570017219856613</v>
+        <v>7.107311195220237</v>
       </c>
       <c r="E39">
-        <v>7.32862621497187</v>
+        <v>7.346879961282193</v>
       </c>
       <c r="F39">
-        <v>7.541429443458716</v>
+        <v>7.000906596267726</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6.685661108703901</v>
+        <v>7.361074510804868</v>
       </c>
       <c r="C40">
-        <v>7.359871556703156</v>
+        <v>7.191052849520561</v>
       </c>
       <c r="D40">
-        <v>6.601967197924111</v>
+        <v>7.159761911063955</v>
       </c>
       <c r="E40">
-        <v>7.385799452792316</v>
+        <v>7.40117430707226</v>
       </c>
       <c r="F40">
-        <v>7.554385117692433</v>
+        <v>7.050327151942965</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6.713657748095168</v>
+        <v>7.420717015700697</v>
       </c>
       <c r="C41">
-        <v>7.396844488949721</v>
+        <v>7.245556178810578</v>
       </c>
       <c r="D41">
-        <v>6.634667359392552</v>
+        <v>7.214264891674483</v>
       </c>
       <c r="E41">
-        <v>7.44377186416239</v>
+        <v>7.457240972051358</v>
       </c>
       <c r="F41">
-        <v>7.565301379549417</v>
+        <v>7.101798633504166</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6.742383411933377</v>
+        <v>7.482075299356888</v>
       </c>
       <c r="C42">
-        <v>7.434006514663372</v>
+        <v>7.302091849072215</v>
       </c>
       <c r="D42">
-        <v>6.668158569754368</v>
+        <v>7.270889622286079</v>
       </c>
       <c r="E42">
-        <v>7.502528154175143</v>
+        <v>7.515149075312174</v>
       </c>
       <c r="F42">
-        <v>7.574221619662506</v>
+        <v>7.155394706264993</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6.771885756370071</v>
+        <v>7.545203591209736</v>
       </c>
       <c r="C43">
-        <v>7.471394868621875</v>
+        <v>7.360725249219271</v>
       </c>
       <c r="D43">
-        <v>6.702479674837573</v>
+        <v>7.329701698247649</v>
       </c>
       <c r="E43">
-        <v>7.562048370776612</v>
+        <v>7.57496400775515</v>
       </c>
       <c r="F43">
-        <v>7.581189554490718</v>
+        <v>7.211185197764358</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6.80221003784166</v>
+        <v>7.610153166604261</v>
       </c>
       <c r="C44">
-        <v>7.509044380446461</v>
+        <v>7.421518181505794</v>
       </c>
       <c r="D44">
-        <v>6.73766745175226</v>
+        <v>7.390763017601873</v>
       </c>
       <c r="E44">
-        <v>7.622308014453472</v>
+        <v>7.636747615103137</v>
       </c>
       <c r="F44">
-        <v>7.586248959140779</v>
+        <v>7.269236328440623</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6.833399163821676</v>
+        <v>7.67697245698693</v>
       </c>
       <c r="C45">
-        <v>7.546987510193889</v>
+        <v>7.484529047142817</v>
       </c>
       <c r="D45">
-        <v>6.773756523569967</v>
+        <v>7.454131962485234</v>
       </c>
       <c r="E45">
-        <v>7.683278158193983</v>
+        <v>7.700558380279833</v>
       </c>
       <c r="F45">
-        <v>7.589443397493255</v>
+        <v>7.329610822990799</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6.865493712039468</v>
+        <v>7.745707137780618</v>
       </c>
       <c r="C46">
-        <v>7.585254338983804</v>
+        <v>7.54981300014657</v>
       </c>
       <c r="D46">
-        <v>6.81077926778412</v>
+        <v>7.519863569649414</v>
       </c>
       <c r="E46">
-        <v>7.744925567921157</v>
+        <v>7.766451581286561</v>
       </c>
       <c r="F46">
-        <v>7.590815951167434</v>
+        <v>7.39236810296327</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6.89853192441402</v>
+        <v>7.816400220951057</v>
       </c>
       <c r="C47">
-        <v>7.623872564324651</v>
+        <v>7.617422084465575</v>
       </c>
       <c r="D47">
-        <v>6.848765705357859</v>
+        <v>7.588009690337341</v>
       </c>
       <c r="E47">
-        <v>7.807212814586639</v>
+        <v>7.834479443116924</v>
       </c>
       <c r="F47">
-        <v>7.590408946295663</v>
+        <v>7.457564428874553</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6.932549725935096</v>
+        <v>7.889092139220922</v>
       </c>
       <c r="C48">
-        <v>7.662867466534531</v>
+        <v>7.687405385783867</v>
       </c>
       <c r="D48">
-        <v>6.887743369015623</v>
+        <v>7.658619139670392</v>
       </c>
       <c r="E48">
-        <v>7.870098396003645</v>
+        <v>7.904691283131662</v>
       </c>
       <c r="F48">
-        <v>7.588263671524004</v>
+        <v>7.525253012123167</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6.967580683116291</v>
+        <v>7.963820813070678</v>
       </c>
       <c r="C49">
-        <v>7.702261880623117</v>
+        <v>7.759809156552142</v>
       </c>
       <c r="D49">
-        <v>6.927737120031324</v>
+        <v>7.731737835613399</v>
       </c>
       <c r="E49">
-        <v>7.933536853110415</v>
+        <v>7.977133656252662</v>
       </c>
       <c r="F49">
-        <v>7.58442011127469</v>
+        <v>7.595484190473177</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7.003655944770948</v>
+        <v>8.04062171354072</v>
       </c>
       <c r="C50">
-        <v>7.742076114343512</v>
+        <v>7.83467692364448</v>
       </c>
       <c r="D50">
-        <v>6.968768948604079</v>
+        <v>7.80740892747649</v>
       </c>
       <c r="E50">
-        <v>7.997478892764375</v>
+        <v>8.051850465779371</v>
       </c>
       <c r="F50">
-        <v>7.578916684050483</v>
+        <v>7.668305494427186</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7.040804231194373</v>
+        <v>8.119527913859095</v>
       </c>
       <c r="C51">
-        <v>7.782327845409695</v>
+        <v>7.912049611690231</v>
       </c>
       <c r="D51">
-        <v>7.010857754954883</v>
+        <v>7.885672913781464</v>
       </c>
       <c r="E51">
-        <v>8.061871507738021</v>
+        <v>8.128883087394414</v>
       </c>
       <c r="F51">
-        <v>7.571789980890763</v>
+        <v>7.743761790982088</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7.079051651929492</v>
+        <v>8.200570140482396</v>
       </c>
       <c r="C52">
-        <v>7.823031997354185</v>
+        <v>7.991965636369748</v>
       </c>
       <c r="D52">
-        <v>7.054019060084832</v>
+        <v>7.966567749105004</v>
       </c>
       <c r="E52">
-        <v>8.126658102909936</v>
+        <v>8.208270484080721</v>
       </c>
       <c r="F52">
-        <v>7.563074546956191</v>
+        <v>7.821895374044145</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7.118580925667862</v>
+        <v>8.283776791513588</v>
       </c>
       <c r="C53">
-        <v>7.864344981794925</v>
+        <v>8.074460983614376</v>
       </c>
       <c r="D53">
-        <v>7.098393291030185</v>
+        <v>8.050128939454479</v>
       </c>
       <c r="E53">
-        <v>8.191901472543076</v>
+        <v>8.290049296589299</v>
       </c>
       <c r="F53">
-        <v>7.553290588042537</v>
+        <v>7.902746027279842</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7.160190641342414</v>
+        <v>8.369173958968901</v>
       </c>
       <c r="C54">
-        <v>7.906976591386387</v>
+        <v>8.159569300805027</v>
       </c>
       <c r="D54">
-        <v>7.144617283020321</v>
+        <v>8.136389625247727</v>
       </c>
       <c r="E54">
-        <v>8.258125770774615</v>
+        <v>8.374253934183248</v>
       </c>
       <c r="F54">
-        <v>7.544790977931043</v>
+        <v>7.986351156855905</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7.204797528021031</v>
+        <v>8.456785438251448</v>
       </c>
       <c r="C55">
-        <v>7.951734647843285</v>
+        <v>8.24732195582604</v>
       </c>
       <c r="D55">
-        <v>7.193420889556515</v>
+        <v>8.225380650786979</v>
       </c>
       <c r="E55">
-        <v>8.325912370685428</v>
+        <v>8.460916658078544</v>
       </c>
       <c r="F55">
-        <v>7.540135338287003</v>
+        <v>8.072745785874323</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7.253271682516628</v>
+        <v>8.546632713748702</v>
       </c>
       <c r="C56">
-        <v>7.99937444345636</v>
+        <v>8.337748077955109</v>
       </c>
       <c r="D56">
-        <v>7.245492256904273</v>
+        <v>8.317130619941594</v>
       </c>
       <c r="E56">
-        <v>8.39577233154967</v>
+        <v>8.550067650083086</v>
       </c>
       <c r="F56">
-        <v>7.54161245545848</v>
+        <v>8.16196263208829</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7.306436847106967</v>
+        <v>8.638734924716108</v>
       </c>
       <c r="C57">
-        <v>8.050599726713065</v>
+        <v>8.430874623534269</v>
       </c>
       <c r="D57">
-        <v>7.301475658650308</v>
+        <v>8.411665932772438</v>
       </c>
       <c r="E57">
-        <v>8.468148822398959</v>
+        <v>8.641735061391715</v>
       </c>
       <c r="F57">
-        <v>7.551250105498721</v>
+        <v>8.254032133361937</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7.365069321428862</v>
+        <v>8.733108813155948</v>
       </c>
       <c r="C58">
-        <v>8.106062108535571</v>
+        <v>8.526726355648883</v>
       </c>
       <c r="D58">
-        <v>7.361968133119898</v>
+        <v>8.509010802649776</v>
       </c>
       <c r="E58">
-        <v>8.543420757501005</v>
+        <v>8.735945065662722</v>
       </c>
       <c r="F58">
-        <v>7.570816815006554</v>
+        <v>8.348982465518123</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7.429896082897653</v>
+        <v>8.829768665941417</v>
       </c>
       <c r="C59">
-        <v>8.166359928349873</v>
+        <v>8.625325858883645</v>
       </c>
       <c r="D59">
-        <v>7.427515472711955</v>
+        <v>8.609187249587674</v>
       </c>
       <c r="E59">
-        <v>8.621904868972974</v>
+        <v>8.832721868172243</v>
       </c>
       <c r="F59">
-        <v>7.601820987448842</v>
+        <v>8.446839526730168</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7.50159183542463</v>
+        <v>8.928726187098384</v>
       </c>
       <c r="C60">
-        <v>8.232036326570112</v>
+        <v>8.726693516466556</v>
       </c>
       <c r="D60">
-        <v>7.498606975704123</v>
+        <v>8.712215064270023</v>
       </c>
       <c r="E60">
-        <v>8.703858115884721</v>
+        <v>8.93208771687161</v>
       </c>
       <c r="F60">
-        <v>7.645509040618439</v>
+        <v>8.547626889003649</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7.580774869488285</v>
+        <v>9.029990359623412</v>
       </c>
       <c r="C61">
-        <v>8.303576722491451</v>
+        <v>8.830847453570756</v>
       </c>
       <c r="D61">
-        <v>7.575669440047962</v>
+        <v>8.818111735283782</v>
       </c>
       <c r="E61">
-        <v>8.789480357927658</v>
+        <v>9.03406288771753</v>
       </c>
       <c r="F61">
-        <v>7.702863381305115</v>
+        <v>8.651365718524856</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7.668001290066217</v>
+        <v>9.133567298160376</v>
       </c>
       <c r="C62">
-        <v>8.38140538789259</v>
+        <v>8.937803440490548</v>
       </c>
       <c r="D62">
-        <v>7.659059955911245</v>
+        <v>8.926892329615738</v>
       </c>
       <c r="E62">
-        <v>8.878916756235267</v>
+        <v>9.138665634174506</v>
       </c>
       <c r="F62">
-        <v>7.774600820827843</v>
+        <v>8.758074649340285</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7.763757204905538</v>
+        <v>9.239459948429975</v>
       </c>
       <c r="C63">
-        <v>8.465881324153392</v>
+        <v>9.047574748194862</v>
       </c>
       <c r="D63">
-        <v>7.749057463039297</v>
+        <v>9.038569312899293</v>
       </c>
       <c r="E63">
-        <v>8.972260045954016</v>
+        <v>9.245912094744115</v>
       </c>
       <c r="F63">
-        <v>7.861172087724011</v>
+        <v>8.867769598311032</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7.868448416709176</v>
+        <v>9.347667806954279</v>
       </c>
       <c r="C64">
-        <v>8.557293414977712</v>
+        <v>9.160171943479153</v>
       </c>
       <c r="D64">
-        <v>7.845853268560666</v>
+        <v>9.15315229075722</v>
       </c>
       <c r="E64">
-        <v>9.069552852221767</v>
+        <v>9.355816150454526</v>
       </c>
       <c r="F64">
-        <v>7.962762971305609</v>
+        <v>8.980463515770458</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7.982387102507932</v>
+        <v>9.458186541469214</v>
       </c>
       <c r="C65">
-        <v>8.655854741536821</v>
+        <v>9.275602603883515</v>
       </c>
       <c r="D65">
-        <v>7.949540634078397</v>
+        <v>9.270647645338659</v>
       </c>
       <c r="E65">
-        <v>9.170790008345296</v>
+        <v>9.468389214965727</v>
       </c>
       <c r="F65">
-        <v>8.079297831337065</v>
+        <v>9.096166011216358</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>8.10577503915853</v>
+        <v>9.571007495869125</v>
       </c>
       <c r="C66">
-        <v>8.761696416010521</v>
+        <v>9.393870922179131</v>
       </c>
       <c r="D66">
-        <v>8.060104018123868</v>
+        <v>9.39105803055188</v>
       </c>
       <c r="E66">
-        <v>9.275920833647865</v>
+        <v>9.583639930669897</v>
       </c>
       <c r="F66">
-        <v>8.210446150973542</v>
+        <v>9.214882879008618</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>8.238683182475198</v>
+        <v>9.686117052496973</v>
       </c>
       <c r="C67">
-        <v>8.874861065191409</v>
+        <v>9.514977176921912</v>
       </c>
       <c r="D67">
-        <v>8.177408821178892</v>
+        <v>9.514381716047893</v>
       </c>
       <c r="E67">
-        <v>9.38485154195592</v>
+        <v>9.701573734355122</v>
       </c>
       <c r="F67">
-        <v>8.355632813618302</v>
+        <v>9.336615430970021</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>8.381028005408309</v>
+        <v>9.803495820958283</v>
       </c>
       <c r="C68">
-        <v>8.99529671184985</v>
+        <v>9.638916987366668</v>
       </c>
       <c r="D68">
-        <v>8.301192910301536</v>
+        <v>9.640611553374972</v>
       </c>
       <c r="E68">
-        <v>9.497447588148914</v>
+        <v>9.822192270691756</v>
       </c>
       <c r="F68">
-        <v>8.514052715547246</v>
+        <v>9.461359514952401</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>8.532545854332772</v>
+        <v>9.923117602264719</v>
       </c>
       <c r="C69">
-        <v>9.122851074731102</v>
+        <v>9.765680364152514</v>
       </c>
       <c r="D69">
-        <v>8.431061662922845</v>
+        <v>9.769733697012562</v>
       </c>
       <c r="E69">
-        <v>9.6135359255059</v>
+        <v>9.945492465717143</v>
       </c>
       <c r="F69">
-        <v>8.684690160692147</v>
+        <v>9.589104328525996</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>8.692768195904431</v>
+        <v>10.04494805402237</v>
       </c>
       <c r="C70">
-        <v>9.257267140503737</v>
+        <v>9.895250229048974</v>
       </c>
       <c r="D70">
-        <v>8.566488480432598</v>
+        <v>9.901725815231151</v>
       </c>
       <c r="E70">
-        <v>9.732907859837757</v>
+        <v>10.07146531772758</v>
       </c>
       <c r="F70">
-        <v>8.866343234067804</v>
+        <v>9.719830746766402</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>8.861002315108067</v>
+        <v>10.16894295933698</v>
       </c>
       <c r="C71">
-        <v>9.39818081785605</v>
+        <v>10.0276005132637</v>
       </c>
       <c r="D71">
-        <v>8.706822615922977</v>
+        <v>10.03655459293032</v>
       </c>
       <c r="E71">
-        <v>9.855321384609081</v>
+        <v>10.2000941798037</v>
       </c>
       <c r="F71">
-        <v>9.057653004780857</v>
+        <v>9.853509059756178</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>9.036323353044757</v>
+        <v>10.2950460481251</v>
       </c>
       <c r="C72">
-        <v>9.545121335950546</v>
+        <v>10.16269359856636</v>
       </c>
       <c r="D72">
-        <v>8.851305492395594</v>
+        <v>10.17417232225205</v>
       </c>
       <c r="E72">
-        <v>9.980503645405035</v>
+        <v>10.33135221217426</v>
       </c>
       <c r="F72">
-        <v>9.257137010141854</v>
+        <v>9.990095769830921</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>9.217584182306444</v>
+        <v>10.42318591497285</v>
       </c>
       <c r="C73">
-        <v>9.697515055132857</v>
+        <v>10.30047657243424</v>
       </c>
       <c r="D73">
-        <v>8.9990954172212</v>
+        <v>10.31451223821432</v>
       </c>
       <c r="E73">
-        <v>10.1081538214583</v>
+        <v>10.4651988537457</v>
       </c>
       <c r="F73">
-        <v>9.463226044186202</v>
+        <v>10.129529449349</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>9.403447740216874</v>
+        <v>10.55327221589578</v>
       </c>
       <c r="C74">
-        <v>9.854693188885774</v>
+        <v>10.44087609566414</v>
       </c>
       <c r="D74">
-        <v>9.149299051619391</v>
+        <v>10.45748220408302</v>
       </c>
       <c r="E74">
-        <v>10.23794581942784</v>
+        <v>10.60157482022173</v>
       </c>
       <c r="F74">
-        <v>9.674302907406839</v>
+        <v>10.27172513037481</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>9.592442048313615</v>
+        <v>10.68519073495053</v>
       </c>
       <c r="C75">
-        <v>10.01590369319691</v>
+        <v>10.58379144765518</v>
       </c>
       <c r="D75">
-        <v>9.301006518133306</v>
+        <v>10.60295638591933</v>
       </c>
       <c r="E75">
-        <v>10.3695307592645</v>
+        <v>10.74039508432181</v>
       </c>
       <c r="F75">
-        <v>9.888741354586537</v>
+        <v>10.41656681116077</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>9.783032511331886</v>
+        <v>10.8187969032984</v>
       </c>
       <c r="C76">
-        <v>10.18032689258207</v>
+        <v>10.72908494473839</v>
       </c>
       <c r="D76">
-        <v>9.453325891749115</v>
+        <v>10.75076443092163</v>
       </c>
       <c r="E76">
-        <v>10.50254082043317</v>
+        <v>10.88153931454272</v>
       </c>
       <c r="F76">
-        <v>10.10494357455535</v>
+        <v>10.56389776368612</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>9.973700821183503</v>
+        <v>10.95390756414184</v>
       </c>
       <c r="C77">
-        <v>10.34709447492948</v>
+        <v>10.87656934212616</v>
       </c>
       <c r="D77">
-        <v>9.605413691984923</v>
+        <v>10.90067767281869</v>
       </c>
       <c r="E77">
-        <v>10.63659186454832</v>
+        <v>11.02483922891493</v>
       </c>
       <c r="F77">
-        <v>10.32137438465557</v>
+        <v>10.71350840919572</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>10.16301803068115</v>
+        <v>11.09029080933118</v>
       </c>
       <c r="C78">
-        <v>10.51531050047381</v>
+        <v>11.02599187646788</v>
       </c>
       <c r="D78">
-        <v>9.75649824285725</v>
+        <v>11.05239321631814</v>
       </c>
       <c r="E78">
-        <v>10.77128634118099</v>
+        <v>11.17006267940982</v>
       </c>
       <c r="F78">
-        <v>10.53659067875144</v>
+        <v>10.86512169949456</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>10.34970140103879</v>
+        <v>11.2276543508667</v>
       </c>
       <c r="C79">
-        <v>10.68407335573842</v>
+        <v>11.17701533595761</v>
       </c>
       <c r="D79">
-        <v>9.905894839183082</v>
+        <v>11.20551662037397</v>
       </c>
       <c r="E79">
-        <v>10.90621680232061</v>
+        <v>11.31689497476826</v>
       </c>
       <c r="F79">
-        <v>10.74926499533452</v>
+        <v>11.01837689640519</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>10.53264967621143</v>
+        <v>11.365632924007</v>
       </c>
       <c r="C80">
-        <v>10.85249707972243</v>
+        <v>11.3291978438683</v>
       </c>
       <c r="D80">
-        <v>10.053012808636</v>
+        <v>11.35954534469021</v>
       </c>
       <c r="E80">
-        <v>11.04096926607135</v>
+        <v>11.46491919321526</v>
       </c>
       <c r="F80">
-        <v>10.95820271840581</v>
+        <v>11.17281336705521</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>10.71095682880092</v>
+        <v>11.50377707256156</v>
       </c>
       <c r="C81">
-        <v>11.01973080974474</v>
+        <v>11.48197487687209</v>
       </c>
       <c r="D81">
-        <v>10.19735582069988</v>
+        <v>11.51385718290947</v>
       </c>
       <c r="E81">
-        <v>11.17512660762984</v>
+        <v>11.61359890588141</v>
       </c>
       <c r="F81">
-        <v>11.16235270596065</v>
+        <v>11.32785782017782</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>10.88390821854023</v>
+        <v>11.64154645486227</v>
       </c>
       <c r="C82">
-        <v>11.18497532106797</v>
+        <v>11.63464930334083</v>
       </c>
       <c r="D82">
-        <v>10.33851720168679</v>
+        <v>11.66770846569755</v>
       </c>
       <c r="E82">
-        <v>11.30827210020725</v>
+        <v>11.76226844868855</v>
       </c>
       <c r="F82">
-        <v>11.36081178718283</v>
+        <v>11.48281913634883</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>11.05096488078633</v>
+        <v>11.77831185317692</v>
       </c>
       <c r="C83">
-        <v>11.34749590817246</v>
+        <v>11.78639563081117</v>
       </c>
       <c r="D83">
-        <v>10.47617208961775</v>
+        <v>11.82024693898941</v>
       </c>
       <c r="E83">
-        <v>11.43999287096766</v>
+        <v>11.91013672449371</v>
       </c>
       <c r="F83">
-        <v>11.55282385997665</v>
+        <v>11.63689560437178</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>11.21174136183496</v>
+        <v>11.91336955794856</v>
       </c>
       <c r="C84">
-        <v>11.50663141640097</v>
+        <v>11.93628403423304</v>
       </c>
       <c r="D84">
-        <v>10.61006797374798</v>
+        <v>11.97054196873036</v>
       </c>
       <c r="E84">
-        <v>11.56988346306351</v>
+        <v>12.05630928864798</v>
       </c>
       <c r="F84">
-        <v>11.73777454089286</v>
+        <v>11.78919813045976</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>11.36598144929425</v>
+        <v>12.04596927275706</v>
       </c>
       <c r="C85">
-        <v>11.66179950066001</v>
+        <v>12.08332473963333</v>
       </c>
       <c r="D85">
-        <v>10.74001479511995</v>
+        <v>12.11763028345342</v>
       </c>
       <c r="E85">
-        <v>11.6975494753133</v>
+        <v>12.19982944516511</v>
       </c>
       <c r="F85">
-        <v>11.91518243534559</v>
+        <v>11.93878916815194</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>11.51353417421318</v>
+        <v>12.17535266671652</v>
       </c>
       <c r="C86">
-        <v>11.81249200993205</v>
+        <v>12.22652703727987</v>
       </c>
       <c r="D86">
-        <v>10.86587484282744</v>
+        <v>12.26057071846207</v>
       </c>
       <c r="E86">
-        <v>11.82260296929386</v>
+        <v>12.33973351885862</v>
       </c>
       <c r="F86">
-        <v>12.08468435620137</v>
+        <v>12.08473276017729</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>11.6543317069194</v>
+        <v>12.30079589426873</v>
       </c>
       <c r="C87">
-        <v>11.95826195714346</v>
+        <v>12.36496143006591</v>
       </c>
       <c r="D87">
-        <v>10.98755382904612</v>
+        <v>12.39849712005757</v>
       </c>
       <c r="E87">
-        <v>11.94464746017252</v>
+        <v>12.47510966416257</v>
       </c>
       <c r="F87">
-        <v>12.24601635376236</v>
+        <v>12.22614689759125</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>11.7883729679695</v>
+        <v>12.42164795091548</v>
       </c>
       <c r="C88">
-        <v>12.09874241132537</v>
+        <v>12.49781247009314</v>
       </c>
       <c r="D88">
-        <v>11.10499381802177</v>
+        <v>12.53066119220596</v>
       </c>
       <c r="E88">
-        <v>12.06331105250008</v>
+        <v>12.60514911873273</v>
       </c>
       <c r="F88">
-        <v>12.39901430069974</v>
+        <v>12.36224881398166</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>11.91570872840083</v>
+        <v>12.53735839492906</v>
       </c>
       <c r="C89">
-        <v>12.23364651095765</v>
+        <v>12.62441339059602</v>
       </c>
       <c r="D89">
-        <v>11.21816717126553</v>
+        <v>12.65645837696276</v>
       </c>
       <c r="E89">
-        <v>12.17825837308071</v>
+        <v>12.72918143836449</v>
       </c>
       <c r="F89">
-        <v>12.54360368289599</v>
+        <v>12.49238611900287</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>12.03642844772228</v>
+        <v>12.64749162557229</v>
       </c>
       <c r="C90">
-        <v>12.36276015844857</v>
+        <v>12.74426005030242</v>
       </c>
       <c r="D90">
-        <v>11.32707100723379</v>
+        <v>12.77543655498487</v>
       </c>
       <c r="E90">
-        <v>12.28919051932561</v>
+        <v>12.84669055523153</v>
       </c>
       <c r="F90">
-        <v>12.6797856572806</v>
+        <v>12.61605127720693</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>12.15065060484105</v>
+        <v>12.75172859216757</v>
       </c>
       <c r="C91">
-        <v>12.48593267564566</v>
+        <v>12.85700703881066</v>
       </c>
       <c r="D91">
-        <v>11.43172184789578</v>
+        <v>12.88729018138494</v>
       </c>
       <c r="E91">
-        <v>12.39584590152391</v>
+        <v>12.95731368663485</v>
       </c>
       <c r="F91">
-        <v>12.80762265023103</v>
+        <v>12.73288105156696</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>12.25851445784589</v>
+        <v>12.84985910191594</v>
       </c>
       <c r="C92">
-        <v>12.60306808569378</v>
+        <v>12.96245179824957</v>
       </c>
       <c r="D92">
-        <v>11.5321516253815</v>
+        <v>12.99184494957776</v>
       </c>
       <c r="E92">
-        <v>12.49800062173153</v>
+        <v>13.06082814963543</v>
       </c>
       <c r="F92">
-        <v>12.92722747878056</v>
+        <v>12.84264508834064</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>12.36017386301434</v>
+        <v>12.94176853145813</v>
       </c>
       <c r="C93">
-        <v>12.7141182846886</v>
+        <v>13.06051269365634</v>
       </c>
       <c r="D93">
-        <v>11.62840447524589</v>
+        <v>13.08903770475028</v>
       </c>
       <c r="E93">
-        <v>12.5954684589247</v>
+        <v>13.15713156608146</v>
       </c>
       <c r="F93">
-        <v>13.03875337640555</v>
+        <v>12.94522828178265</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>12.45579284287056</v>
+        <v>13.02742223820239</v>
       </c>
       <c r="C94">
-        <v>12.81907572584212</v>
+        <v>13.15120563659716</v>
       </c>
       <c r="D94">
-        <v>11.72053414303098</v>
+        <v>13.17889531364197</v>
       </c>
       <c r="E94">
-        <v>12.68810051609437</v>
+        <v>13.24621991850729</v>
       </c>
       <c r="F94">
-        <v>13.14238445159956</v>
+        <v>13.04061084926128</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>12.54554169052244</v>
+        <v>13.10684998588117</v>
       </c>
       <c r="C95">
-        <v>12.91796674342337</v>
+        <v>13.23462206751793</v>
       </c>
       <c r="D95">
-        <v>11.80860178733588</v>
+        <v>13.26151483574393</v>
       </c>
       <c r="E95">
-        <v>12.77578433328968</v>
+        <v>13.32816643254894</v>
       </c>
       <c r="F95">
-        <v>13.23832877185539</v>
+        <v>13.1288488729594</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>12.62959414047485</v>
+        <v>13.18013173848501</v>
       </c>
       <c r="C96">
-        <v>13.01084622394171</v>
+        <v>13.31090989393979</v>
       </c>
       <c r="D96">
-        <v>11.8926738474927</v>
+        <v>13.3370461920367</v>
       </c>
       <c r="E96">
-        <v>12.85844246712372</v>
+        <v>13.4031028678954</v>
       </c>
       <c r="F96">
-        <v>13.32681231547196</v>
+        <v>13.2100567595809</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>12.70812521007831</v>
+        <v>13.24738544317018</v>
       </c>
       <c r="C97">
-        <v>13.097792784192</v>
+        <v>13.38025762603561</v>
       </c>
       <c r="D97">
-        <v>11.97282129327571</v>
+        <v>13.40567760380502</v>
       </c>
       <c r="E97">
-        <v>12.93603050103987</v>
+        <v>13.47120370483533</v>
       </c>
       <c r="F97">
-        <v>13.40807355017023</v>
+        <v>13.28439234652878</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>12.78130963309937</v>
+        <v>13.30875686843422</v>
       </c>
       <c r="C98">
-        <v>13.1789042809432</v>
+        <v>13.44288174658738</v>
       </c>
       <c r="D98">
-        <v>12.04911823656869</v>
+        <v>13.46762399519332</v>
       </c>
       <c r="E98">
-        <v>13.00853469609226</v>
+        <v>13.53267352147998</v>
       </c>
       <c r="F98">
-        <v>13.48235899608817</v>
+        <v>13.35204455728382</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>12.84932068343206</v>
+        <v>13.36441146499059</v>
       </c>
       <c r="C99">
-        <v>13.25429392741378</v>
+        <v>13.49901701965567</v>
       </c>
       <c r="D99">
-        <v>12.12164085675072</v>
+        <v>13.52311779851636</v>
       </c>
       <c r="E99">
-        <v>13.07596924830784</v>
+        <v>13.58773693585312</v>
       </c>
       <c r="F99">
-        <v>13.54991924360858</v>
+        <v>13.41322362710608</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>12.91232923108979</v>
+        <v>13.4145279249988</v>
       </c>
       <c r="C100">
-        <v>13.32408708661123</v>
+        <v>13.54890892978768</v>
       </c>
       <c r="D100">
-        <v>12.19046667307292</v>
+        <v>13.57240190801371</v>
       </c>
       <c r="E100">
-        <v>13.13837317385714</v>
+        <v>13.63663084489493</v>
       </c>
       <c r="F100">
-        <v>13.61100706260909</v>
+        <v>13.46815361955041</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>12.97050302134586</v>
+        <v>13.45929317189514</v>
       </c>
       <c r="C101">
-        <v>13.38841857078421</v>
+        <v>13.59280798681837</v>
       </c>
       <c r="D101">
-        <v>12.255674078793</v>
+        <v>13.61572419698146</v>
       </c>
       <c r="E101">
-        <v>13.19580712280692</v>
+        <v>13.67959858096079</v>
       </c>
       <c r="F101">
-        <v>13.66587461783983</v>
+        <v>13.5170665242494</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>13.02400618147406</v>
+        <v>13.49889851804742</v>
       </c>
       <c r="C102">
-        <v>13.44743034773148</v>
+        <v>13.63096558557927</v>
       </c>
       <c r="D102">
-        <v>12.31734182597078</v>
+        <v>13.65333351506173</v>
       </c>
       <c r="E102">
-        <v>13.24835017632126</v>
+        <v>13.716885487</v>
       </c>
       <c r="F102">
-        <v>13.71477128469504</v>
+        <v>13.56019774122838</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>13.07299889617252</v>
+        <v>13.53353674391612</v>
       </c>
       <c r="C103">
-        <v>13.50126954087499</v>
+        <v>13.66363090606336</v>
       </c>
       <c r="D103">
-        <v>12.37554860156504</v>
+        <v>13.68547672835278</v>
       </c>
       <c r="E103">
-        <v>13.29609670498832</v>
+        <v>13.74873566222568</v>
       </c>
       <c r="F103">
-        <v>13.75794241348475</v>
+        <v>13.59778271539482</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>13.11763718087784</v>
+        <v>13.56339991210905</v>
       </c>
       <c r="C104">
-        <v>13.55008669436786</v>
+        <v>13.69104875095346</v>
       </c>
       <c r="D104">
-        <v>12.43037272127783</v>
+        <v>13.71239652397498</v>
       </c>
       <c r="E104">
-        <v>13.33915344576496</v>
+        <v>13.77538960061795</v>
       </c>
       <c r="F104">
-        <v>13.79562833354529</v>
+        <v>13.63005453809235</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>13.15807272605195</v>
+        <v>13.58867773173515</v>
       </c>
       <c r="C105">
-        <v>13.59403431407044</v>
+        <v>13.71345798121946</v>
       </c>
       <c r="D105">
-        <v>12.48189190038013</v>
+        <v>13.73432987075087</v>
       </c>
       <c r="E105">
-        <v>13.37763682514094</v>
+        <v>13.79708249897999</v>
       </c>
       <c r="F105">
-        <v>13.82806342567947</v>
+        <v>13.65724213075325</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>13.1944528079178</v>
+        <v>13.60955633239658</v>
       </c>
       <c r="C106">
-        <v>13.6332657250102</v>
+        <v>13.73109044162037</v>
       </c>
       <c r="D106">
-        <v>12.53018305961645</v>
+        <v>13.75150694944091</v>
       </c>
       <c r="E106">
-        <v>13.4116705911178</v>
+        <v>13.81404307975408</v>
       </c>
       <c r="F106">
-        <v>13.85547541852898</v>
+        <v>13.67956894820059</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>13.22692023928595</v>
+        <v>13.62621746326596</v>
       </c>
       <c r="C107">
-        <v>13.66793411775001</v>
+        <v>13.74417027770059</v>
       </c>
       <c r="D107">
-        <v>12.57532216192955</v>
+        <v>13.76415043984118</v>
       </c>
       <c r="E107">
-        <v>13.44138372725924</v>
+        <v>13.826492802485</v>
       </c>
       <c r="F107">
-        <v>13.87808494806815</v>
+        <v>13.69725207639079</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>13.25561339595683</v>
+        <v>13.63883790054147</v>
       </c>
       <c r="C108">
-        <v>13.69819174701503</v>
+        <v>13.75291351074531</v>
       </c>
       <c r="D108">
-        <v>12.61738408634309</v>
+        <v>13.77247508191999</v>
       </c>
       <c r="E108">
-        <v>13.46690867028847</v>
+        <v>13.83464537387014</v>
       </c>
       <c r="F108">
-        <v>13.8961053246084</v>
+        <v>13.71050166868379</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>13.28066625403993</v>
+        <v>13.64758899858679</v>
       </c>
       <c r="C109">
-        <v>13.72418926505637</v>
+        <v>13.75752782553822</v>
       </c>
       <c r="D109">
-        <v>12.65644253562468</v>
+        <v>13.77668743707549</v>
       </c>
       <c r="E109">
-        <v>13.48837981228052</v>
+        <v>13.83870645983273</v>
       </c>
       <c r="F109">
-        <v>13.90974238751112</v>
+        <v>13.71952058030458</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>13.30220844628574</v>
+        <v>13.65263646230787</v>
       </c>
       <c r="C110">
-        <v>13.74607518020611</v>
+        <v>13.75821249825195</v>
       </c>
       <c r="D110">
-        <v>12.69256996928935</v>
+        <v>13.7769858101549</v>
       </c>
       <c r="E110">
-        <v>13.50593225407947</v>
+        <v>13.83887354797363</v>
       </c>
       <c r="F110">
-        <v>13.91919443435128</v>
+        <v>13.72450416603123</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>13.32036533222275</v>
+        <v>13.65414021956459</v>
       </c>
       <c r="C111">
-        <v>13.76399541174138</v>
+        <v>13.75515841938479</v>
       </c>
       <c r="D111">
-        <v>12.72583754437541</v>
+        <v>13.7735602469791</v>
       </c>
       <c r="E111">
-        <v>13.51970079839933</v>
+        <v>13.83533598123491</v>
       </c>
       <c r="F111">
-        <v>13.9246522039886</v>
+        <v>13.72564020299326</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>13.3352580842307</v>
+        <v>13.6522543697018</v>
       </c>
       <c r="C112">
-        <v>13.77809296461436</v>
+        <v>13.74854824737954</v>
       </c>
       <c r="D112">
-        <v>12.75631506875093</v>
+        <v>13.76659265482637</v>
       </c>
       <c r="E112">
-        <v>13.52981909947497</v>
+        <v>13.82827505767872</v>
       </c>
       <c r="F112">
-        <v>13.92629890601876</v>
+        <v>13.72310892326415</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>13.34700378566616</v>
+        <v>13.64712719487504</v>
       </c>
       <c r="C113">
-        <v>13.78850766565823</v>
+        <v>13.73855659710012</v>
       </c>
       <c r="D113">
-        <v>12.78407098476589</v>
+        <v>13.75625698396357</v>
       </c>
       <c r="E113">
-        <v>13.53641899268235</v>
+        <v>13.81786415321239</v>
       </c>
       <c r="F113">
-        <v>13.92431033108858</v>
+        <v>13.71708311015542</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>13.35571553523722</v>
+        <v>13.63890122667535</v>
       </c>
       <c r="C114">
-        <v>13.79537595575027</v>
+        <v>13.7253502346568</v>
       </c>
       <c r="D114">
-        <v>12.80917234864204</v>
+        <v>13.74271943749973</v>
       </c>
       <c r="E114">
-        <v>13.53963000340059</v>
+        <v>13.80426892286762</v>
       </c>
       <c r="F114">
-        <v>13.91885502254992</v>
+        <v>13.70772824344332</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>13.36150255570391</v>
+        <v>13.62771334786983</v>
       </c>
       <c r="C115">
-        <v>13.7988307378783</v>
+        <v>13.70908832272982</v>
       </c>
       <c r="D115">
-        <v>12.83168482433294</v>
+        <v>13.72613867224534</v>
       </c>
       <c r="E115">
-        <v>13.53957896534769</v>
+        <v>13.78764753544756</v>
       </c>
       <c r="F115">
-        <v>13.91009445942996</v>
+        <v>13.69520266469933</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>13.36447029896118</v>
+        <v>13.61369492411808</v>
       </c>
       <c r="C116">
-        <v>13.79900127754894</v>
+        <v>13.68992269118907</v>
       </c>
       <c r="D116">
-        <v>12.85167268721809</v>
+        <v>13.70666607453057</v>
       </c>
       <c r="E116">
-        <v>13.53638970774042</v>
+        <v>13.76815092407647</v>
       </c>
       <c r="F116">
-        <v>13.89818325664295</v>
+        <v>13.67965779552633</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>13.3647205532775</v>
+        <v>13.59697194082486</v>
       </c>
       <c r="C117">
-        <v>13.79601311121664</v>
+        <v>13.66799811305138</v>
       </c>
       <c r="D117">
-        <v>12.86919880911542</v>
+        <v>13.68444602231965</v>
       </c>
       <c r="E117">
-        <v>13.53018281881599</v>
+        <v>13.74592304513616</v>
       </c>
       <c r="F117">
-        <v>13.88326934886194</v>
+        <v>13.66123836566514</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>13.36235156520556</v>
+        <v>13.57766515513739</v>
       </c>
       <c r="C118">
-        <v>13.78998802671525</v>
+        <v>13.643452580498</v>
       </c>
       <c r="D118">
-        <v>12.88432468058025</v>
+        <v>13.65961615762059</v>
       </c>
       <c r="E118">
-        <v>13.52107549089738</v>
+        <v>13.72110114720081</v>
       </c>
       <c r="F118">
-        <v>13.86549421877333</v>
+        <v>13.64008265232572</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>13.35745814080816</v>
+        <v>13.55589028066618</v>
       </c>
       <c r="C119">
-        <v>13.78104405172263</v>
+        <v>13.61641758159268</v>
       </c>
       <c r="D119">
-        <v>12.89711041615878</v>
+        <v>13.63230765713842</v>
       </c>
       <c r="E119">
-        <v>13.50918143344854</v>
+        <v>13.6938160345526</v>
       </c>
       <c r="F119">
-        <v>13.84499312446895</v>
+        <v>13.61632270716777</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>13.350131765506</v>
+        <v>13.53175815625487</v>
       </c>
       <c r="C120">
-        <v>13.76929546658635</v>
+        <v>13.58701837613248</v>
       </c>
       <c r="D120">
-        <v>12.90761477285679</v>
+        <v>13.60264550174024</v>
       </c>
       <c r="E120">
-        <v>13.49461080429182</v>
+        <v>13.66419232883879</v>
       </c>
       <c r="F120">
-        <v>13.82189533211211</v>
+        <v>13.59008458648211</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>13.3404607044066</v>
+        <v>13.50537492106876</v>
       </c>
       <c r="C121">
-        <v>13.75485283262203</v>
+        <v>13.55537425613337</v>
       </c>
       <c r="D121">
-        <v>12.91589516615288</v>
+        <v>13.57074874298171</v>
       </c>
       <c r="E121">
-        <v>13.47747019161587</v>
+        <v>13.63234874987057</v>
       </c>
       <c r="F121">
-        <v>13.79632434279522</v>
+        <v>13.5614886057645</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>13.32853011223604</v>
+        <v>13.47684217368466</v>
       </c>
       <c r="C122">
-        <v>13.73782302999885</v>
+        <v>13.52159882117108</v>
       </c>
       <c r="D122">
-        <v>12.92200768816652</v>
+        <v>13.53673075389618</v>
       </c>
       <c r="E122">
-        <v>13.4578626219827</v>
+        <v>13.59839836645298</v>
       </c>
       <c r="F122">
-        <v>13.76839811734482</v>
+        <v>13.53064957147703</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>13.31442212349008</v>
+        <v>13.4462571519101</v>
       </c>
       <c r="C123">
-        <v>13.7183093125801</v>
+        <v>13.4858002355012</v>
       </c>
       <c r="D123">
-        <v>12.92600712844506</v>
+        <v>13.50069949570835</v>
       </c>
       <c r="E123">
-        <v>13.43588758900423</v>
+        <v>13.56244885706094</v>
       </c>
       <c r="F123">
-        <v>13.73822929862686</v>
+        <v>13.49767701381658</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>13.29821596938794</v>
+        <v>13.41371290506211</v>
       </c>
       <c r="C124">
-        <v>13.69641137317233</v>
+        <v>13.44808146734113</v>
       </c>
       <c r="D124">
-        <v>12.92794699648952</v>
+        <v>13.46275776476861</v>
       </c>
       <c r="E124">
-        <v>13.41164109699766</v>
+        <v>13.52460274521855</v>
       </c>
       <c r="F124">
-        <v>13.70592542921237</v>
+        <v>13.46267541110865</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>13.27998807146319</v>
+        <v>13.379298459512</v>
       </c>
       <c r="C125">
-        <v>13.67222541631325</v>
+        <v>13.40854054705154</v>
       </c>
       <c r="D125">
-        <v>12.92787954169237</v>
+        <v>13.42300341684223</v>
       </c>
       <c r="E125">
-        <v>13.38521571924458</v>
+        <v>13.48495762603243</v>
       </c>
       <c r="F125">
-        <v>13.67158916547102</v>
+        <v>13.42574440864812</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>13.25981213621254</v>
+        <v>13.34309898092204</v>
       </c>
       <c r="C126">
-        <v>13.64584423652525</v>
+        <v>13.36727077284782</v>
       </c>
       <c r="D126">
-        <v>12.92585577782486</v>
+        <v>13.38152960989856</v>
       </c>
       <c r="E126">
-        <v>13.35670066834703</v>
+        <v>13.44360640714637</v>
       </c>
       <c r="F126">
-        <v>13.63531848544315</v>
+        <v>13.38697903391734</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>13.23775924841053</v>
+        <v>13.30519593228222</v>
       </c>
       <c r="C127">
-        <v>13.61735730071383</v>
+        <v>13.32436093370992</v>
       </c>
       <c r="D127">
-        <v>12.92192549948451</v>
+        <v>13.33842501301964</v>
       </c>
       <c r="E127">
-        <v>13.32618187476158</v>
+        <v>13.40063752434914</v>
       </c>
       <c r="F127">
-        <v>13.59720688821062</v>
+        <v>13.34646990757801</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>13.2138979664355</v>
+        <v>13.26566722203324</v>
       </c>
       <c r="C128">
-        <v>13.58685083338636</v>
+        <v>13.27989553837485</v>
       </c>
       <c r="D128">
-        <v>12.91613732164234</v>
+        <v>13.29377400609051</v>
       </c>
       <c r="E128">
-        <v>13.29374207052085</v>
+        <v>13.356135148016</v>
       </c>
       <c r="F128">
-        <v>13.55734359121425</v>
+        <v>13.30430341508798</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>13.18829440268828</v>
+        <v>13.22458736742469</v>
       </c>
       <c r="C129">
-        <v>13.55440790728097</v>
+        <v>13.23395500705028</v>
       </c>
       <c r="D129">
-        <v>12.90853868802435</v>
+        <v>13.2476569041859</v>
       </c>
       <c r="E129">
-        <v>13.25946087678183</v>
+        <v>13.31017939003125</v>
       </c>
       <c r="F129">
-        <v>13.51581371679087</v>
+        <v>13.26056194414474</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>13.16101231302282</v>
+        <v>13.18202761007846</v>
       </c>
       <c r="C130">
-        <v>13.52010852988187</v>
+        <v>13.18661586311798</v>
       </c>
       <c r="D130">
-        <v>12.89917590852192</v>
+        <v>13.20015014300379</v>
       </c>
       <c r="E130">
-        <v>13.22341489458625</v>
+        <v>13.26284649562363</v>
       </c>
       <c r="F130">
-        <v>13.4726984864935</v>
+        <v>13.21532401860953</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>13.13211317805794</v>
+        <v>13.13805610173948</v>
       </c>
       <c r="C131">
-        <v>13.4840297344271</v>
+        <v>13.13795093592671</v>
       </c>
       <c r="D131">
-        <v>12.88809417505368</v>
+        <v>13.15132645485476</v>
       </c>
       <c r="E131">
-        <v>13.18567779839614</v>
+        <v>13.21420902248726</v>
       </c>
       <c r="F131">
-        <v>13.42807536283305</v>
+        <v>13.1686645071956</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>13.10165627571389</v>
+        <v>13.09273797265411</v>
       </c>
       <c r="C132">
-        <v>13.4462456632062</v>
+        <v>13.08802951764807</v>
       </c>
       <c r="D132">
-        <v>12.8753375894257</v>
+        <v>13.10125506058895</v>
       </c>
       <c r="E132">
-        <v>13.14632042576353</v>
+        <v>13.16433602021275</v>
       </c>
       <c r="F132">
-        <v>13.3820182791027</v>
+        <v>13.12065477715259</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>13.06969879039649</v>
+        <v>13.04613552942062</v>
       </c>
       <c r="C133">
-        <v>13.40682768011111</v>
+        <v>13.03691753994115</v>
       </c>
       <c r="D133">
-        <v>12.86094918728016</v>
+        <v>13.05000182829508</v>
       </c>
       <c r="E133">
-        <v>13.10541086947713</v>
+        <v>13.11329320245162</v>
       </c>
       <c r="F133">
-        <v>13.33459771405882</v>
+        <v>13.07136284598088</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>13.03629581510303</v>
+        <v>12.99830831334254</v>
       </c>
       <c r="C134">
-        <v>13.36584443947758</v>
+        <v>12.98467774550845</v>
       </c>
       <c r="D134">
-        <v>12.844970952975</v>
+        <v>12.99762943115984</v>
       </c>
       <c r="E134">
-        <v>13.06301457736066</v>
+        <v>13.06114310161199</v>
       </c>
       <c r="F134">
-        <v>13.28588093089628</v>
+        <v>13.02085356488966</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>13.00150054095045</v>
+        <v>12.94931326799148</v>
       </c>
       <c r="C135">
-        <v>13.32336199138</v>
+        <v>12.93136982823473</v>
       </c>
       <c r="D135">
-        <v>12.82744385270577</v>
+        <v>12.94419751287625</v>
       </c>
       <c r="E135">
-        <v>13.01919443756387</v>
+        <v>13.00794522280375</v>
       </c>
       <c r="F135">
-        <v>13.23593205141774</v>
+        <v>12.96918873569413</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>12.96536421489043</v>
+        <v>12.89920481744749</v>
       </c>
       <c r="C136">
-        <v>13.27944385919708</v>
+        <v>12.87705058404268</v>
       </c>
       <c r="D136">
-        <v>12.80840785565433</v>
+        <v>12.88976282640056</v>
       </c>
       <c r="E136">
-        <v>12.97401087416806</v>
+        <v>12.95375619001759</v>
       </c>
       <c r="F136">
-        <v>13.18481225353911</v>
+        <v>12.91642727018081</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>12.92793624881901</v>
+        <v>12.84803499468889</v>
       </c>
       <c r="C137">
-        <v>13.23415113332135</v>
+        <v>12.82177406030151</v>
       </c>
       <c r="D137">
-        <v>12.78790195490059</v>
+        <v>12.83437937057833</v>
       </c>
       <c r="E137">
-        <v>12.92752193089843</v>
+        <v>12.89862988333302</v>
       </c>
       <c r="F137">
-        <v>13.13257987454984</v>
+        <v>12.86262532362684</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>12.88926433536933</v>
+        <v>12.79585354652621</v>
       </c>
       <c r="C138">
-        <v>13.18754253669152</v>
+        <v>12.76559167658713</v>
       </c>
       <c r="D138">
-        <v>12.76596419037393</v>
+        <v>12.77809853334696</v>
       </c>
       <c r="E138">
-        <v>12.87978335896342</v>
+        <v>12.84261757168905</v>
       </c>
       <c r="F138">
-        <v>13.07929055176979</v>
+        <v>12.80783640685712</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>12.84939437840918</v>
+        <v>12.74270801383842</v>
       </c>
       <c r="C139">
-        <v>13.13967452850346</v>
+        <v>12.70855235491373</v>
       </c>
       <c r="D139">
-        <v>12.74263167370679</v>
+        <v>12.72096921087881</v>
       </c>
       <c r="E139">
-        <v>12.83084869581614</v>
+        <v>12.78576805343977</v>
       </c>
       <c r="F139">
-        <v>13.02499736009707</v>
+        <v>12.75211153721312</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>12.80837072118445</v>
+        <v>12.68864386627046</v>
       </c>
       <c r="C140">
-        <v>13.09060137653276</v>
+        <v>12.65070264892982</v>
       </c>
       <c r="D140">
-        <v>12.71794060478595</v>
+        <v>12.66303792610776</v>
       </c>
       <c r="E140">
-        <v>12.78076935479907</v>
+        <v>12.72812775231361</v>
       </c>
       <c r="F140">
-        <v>12.96975089630074</v>
+        <v>12.69549932770486</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>12.76623605517241</v>
+        <v>12.63370454301075</v>
       </c>
       <c r="C141">
-        <v>13.04037523694831</v>
+        <v>12.59208684981106</v>
       </c>
       <c r="D141">
-        <v>12.69192629943748</v>
+        <v>12.60434895302562</v>
       </c>
       <c r="E141">
-        <v>12.72959470260379</v>
+        <v>12.66974089019611</v>
       </c>
       <c r="F141">
-        <v>12.91359944090479</v>
+        <v>12.6380461146173</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>12.72303157371002</v>
+        <v>12.57793159324012</v>
       </c>
       <c r="C142">
-        <v>12.98904623264851</v>
+        <v>12.53274709776693</v>
       </c>
       <c r="D142">
-        <v>12.66462320357895</v>
+        <v>12.54494441952715</v>
       </c>
       <c r="E142">
-        <v>12.67737213637892</v>
+        <v>12.61064948410254</v>
       </c>
       <c r="F142">
-        <v>12.85658901231866</v>
+        <v>12.57979606735441</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>12.67879699213478</v>
+        <v>12.52136471024413</v>
       </c>
       <c r="C143">
-        <v>12.93666252221389</v>
+        <v>12.47272349345601</v>
       </c>
       <c r="D143">
-        <v>12.63606492030309</v>
+        <v>12.48486441023149</v>
       </c>
       <c r="E143">
-        <v>12.62414715714491</v>
+        <v>12.55089360084671</v>
       </c>
       <c r="F143">
-        <v>12.79876352455488</v>
+        <v>12.52079127296724</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>12.63357057901519</v>
+        <v>12.46404185585652</v>
       </c>
       <c r="C144">
-        <v>12.88327038492789</v>
+        <v>12.41205419023771</v>
       </c>
       <c r="D144">
-        <v>12.6062842239887</v>
+        <v>12.42414707354502</v>
       </c>
       <c r="E144">
-        <v>12.56996344720247</v>
+        <v>12.4905112827755</v>
       </c>
       <c r="F144">
-        <v>12.74016483639062</v>
+        <v>12.46107185679583</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>12.58738927015561</v>
+        <v>12.4059993015601</v>
       </c>
       <c r="C145">
-        <v>12.8289142735575</v>
+        <v>12.35077548895125</v>
       </c>
       <c r="D145">
-        <v>12.57531308557702</v>
+        <v>12.36282871016069</v>
       </c>
       <c r="E145">
-        <v>12.51486293524055</v>
+        <v>12.42953880883264</v>
       </c>
       <c r="F145">
-        <v>12.68083287012726</v>
+        <v>12.40067605481419</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>12.54028863723164</v>
+        <v>12.34727172954086</v>
       </c>
       <c r="C146">
-        <v>12.77363689943211</v>
+        <v>12.28892193421173</v>
       </c>
       <c r="D146">
-        <v>12.54318268652613</v>
+        <v>12.30094386147214</v>
       </c>
       <c r="E146">
-        <v>12.45888586551908</v>
+        <v>12.36801063826208</v>
       </c>
       <c r="F146">
-        <v>12.62080569845251</v>
+        <v>12.33964030950776</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>12.49230302179222</v>
+        <v>12.28789228614059</v>
       </c>
       <c r="C147">
-        <v>12.71747928515163</v>
+        <v>12.22652639236359</v>
       </c>
       <c r="D147">
-        <v>12.50992344287735</v>
+        <v>12.23852540225441</v>
       </c>
       <c r="E147">
-        <v>12.40207086247747</v>
+        <v>12.30595961919754</v>
       </c>
       <c r="F147">
-        <v>12.56011963424646</v>
+        <v>12.27799936292257</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>12.44346550837532</v>
+        <v>12.22789265580895</v>
       </c>
       <c r="C148">
-        <v>12.66048083607317</v>
+        <v>12.16362012485063</v>
       </c>
       <c r="D148">
-        <v>12.47556501865534</v>
+        <v>12.17560461433739</v>
       </c>
       <c r="E148">
-        <v>12.34445499397347</v>
+        <v>12.24341696586447</v>
       </c>
       <c r="F148">
-        <v>12.49880931176722</v>
+        <v>12.21578631838745</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>12.39380799800531</v>
+        <v>12.16730313085587</v>
       </c>
       <c r="C149">
-        <v>12.60267940136271</v>
+        <v>12.10023291050658</v>
       </c>
       <c r="D149">
-        <v>12.44013634883079</v>
+        <v>12.1122112552012</v>
       </c>
       <c r="E149">
-        <v>12.28607384669866</v>
+        <v>12.18041243385778</v>
       </c>
       <c r="F149">
-        <v>12.43690776130956</v>
+        <v>12.15303273697622</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>12.34336127141527</v>
+        <v>12.10615265533566</v>
       </c>
       <c r="C150">
-        <v>12.54411132690862</v>
+        <v>12.0363930344514</v>
       </c>
       <c r="D150">
-        <v>12.40366565252879</v>
+        <v>12.04837367744495</v>
       </c>
       <c r="E150">
-        <v>12.22696154243024</v>
+        <v>12.1169743069173</v>
       </c>
       <c r="F150">
-        <v>12.37444648463333</v>
+        <v>12.08976869715258</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>12.29215496157204</v>
+        <v>12.04446891283201</v>
       </c>
       <c r="C151">
-        <v>12.48481152580948</v>
+        <v>11.97212749218945</v>
       </c>
       <c r="D151">
-        <v>12.36618045443904</v>
+        <v>11.98411881248821</v>
       </c>
       <c r="E151">
-        <v>12.16715088185785</v>
+        <v>12.05312955629179</v>
       </c>
       <c r="F151">
-        <v>12.31145552294735</v>
+        <v>12.02602286584385</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>12.24021768572607</v>
+        <v>11.98227834879662</v>
       </c>
       <c r="C152">
-        <v>12.42481351892746</v>
+        <v>11.90746190812042</v>
       </c>
       <c r="D152">
-        <v>12.32770759819565</v>
+        <v>11.91947236954173</v>
       </c>
       <c r="E152">
-        <v>12.1066732738262</v>
+        <v>11.98890380401316</v>
       </c>
       <c r="F152">
-        <v>12.24796352895727</v>
+        <v>11.96182257697505</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>12.18757699739528</v>
+        <v>11.91960625779493</v>
       </c>
       <c r="C153">
-        <v>12.36414950187167</v>
+        <v>11.84242069938477</v>
       </c>
       <c r="D153">
-        <v>12.28827326386433</v>
+        <v>11.85445876385698</v>
       </c>
       <c r="E153">
-        <v>12.045558914855</v>
+        <v>11.9243214972716</v>
       </c>
       <c r="F153">
-        <v>12.18399783234962</v>
+        <v>11.89719387595714</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>12.13425948391766</v>
+        <v>11.85647680536436</v>
       </c>
       <c r="C154">
-        <v>12.30285038828114</v>
+        <v>11.7770271131744</v>
       </c>
       <c r="D154">
-        <v>12.24790298350001</v>
+        <v>11.78910124897611</v>
       </c>
       <c r="E154">
-        <v>11.98383676151152</v>
+        <v>11.85940584939387</v>
       </c>
       <c r="F154">
-        <v>12.11958449994668</v>
+        <v>11.83216159654381</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>12.08029077785574</v>
+        <v>11.79291310321602</v>
       </c>
       <c r="C155">
-        <v>12.24094586189953</v>
+        <v>11.7113032281163</v>
       </c>
       <c r="D155">
-        <v>12.20662166599826</v>
+        <v>11.72342198647645</v>
       </c>
       <c r="E155">
-        <v>11.92153457313167</v>
+        <v>11.79417900580253</v>
       </c>
       <c r="F155">
-        <v>12.05474839399191</v>
+        <v>11.76674940921486</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>12.02569558377511</v>
+        <v>11.72893723537701</v>
       </c>
       <c r="C156">
-        <v>12.17846442995958</v>
+        <v>11.6452701124488</v>
       </c>
       <c r="D156">
-        <v>12.16445359463884</v>
+        <v>11.65744201368036</v>
       </c>
       <c r="E156">
-        <v>11.8586790293654</v>
+        <v>11.72866201550019</v>
       </c>
       <c r="F156">
-        <v>11.98951322877831</v>
+        <v>11.70097987542901</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>11.97049774508193</v>
+        <v>11.66457031912874</v>
       </c>
       <c r="C157">
-        <v>12.11543345905009</v>
+        <v>11.57894776079849</v>
       </c>
       <c r="D157">
-        <v>12.12142245378098</v>
+        <v>11.59118142090445</v>
       </c>
       <c r="E157">
-        <v>11.79529567604887</v>
+        <v>11.66287493981753</v>
       </c>
       <c r="F157">
-        <v>11.92390162474807</v>
+        <v>11.63487451006917</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>11.9147202152885</v>
+        <v>11.59983253837655</v>
       </c>
       <c r="C158">
-        <v>12.05187923252644</v>
+        <v>11.51235525395049</v>
       </c>
       <c r="D158">
-        <v>12.07755135965688</v>
+        <v>11.52465927210407</v>
       </c>
       <c r="E158">
-        <v>11.73140906879364</v>
+        <v>11.59683687144221</v>
       </c>
       <c r="F158">
-        <v>11.85793515942076</v>
+        <v>11.5684538171673</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>11.85838516256626</v>
+        <v>11.53474318784078</v>
       </c>
       <c r="C159">
-        <v>11.98782698162061</v>
+        <v>11.44551070670235</v>
       </c>
       <c r="D159">
-        <v>12.03286283567056</v>
+        <v>11.45789376842277</v>
       </c>
       <c r="E159">
-        <v>11.66704273275642</v>
+        <v>11.53056600482254</v>
       </c>
       <c r="F159">
-        <v>11.79163441605383</v>
+        <v>11.50173734873902</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>11.80151393976555</v>
+        <v>11.46932071688956</v>
       </c>
       <c r="C160">
-        <v>11.92330092911963</v>
+        <v>11.37843140381966</v>
       </c>
       <c r="D160">
-        <v>11.98737884987384</v>
+        <v>11.39090219522231</v>
       </c>
       <c r="E160">
-        <v>11.60221925535461</v>
+        <v>11.46407965739634</v>
       </c>
       <c r="F160">
-        <v>11.72501903015946</v>
+        <v>11.43474374437588</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>11.74412713707897</v>
+        <v>11.40358275544564</v>
       </c>
       <c r="C161">
-        <v>11.85832433523811</v>
+        <v>11.31113377514642</v>
       </c>
       <c r="D161">
-        <v>11.94112084912406</v>
+        <v>11.32370104466618</v>
       </c>
       <c r="E161">
-        <v>11.53696030910474</v>
+        <v>11.39739432666953</v>
       </c>
       <c r="F161">
-        <v>11.65810773391409</v>
+        <v>11.36749076250921</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>11.68624462018066</v>
+        <v>11.33754616793161</v>
       </c>
       <c r="C162">
-        <v>11.79291954781195</v>
+        <v>11.24363347974056</v>
       </c>
       <c r="D162">
-        <v>11.89410972564912</v>
+        <v>11.25630600825361</v>
       </c>
       <c r="E162">
-        <v>11.47128667370697</v>
+        <v>11.33052572934666</v>
       </c>
       <c r="F162">
-        <v>11.59091839845064</v>
+        <v>11.29999535785521</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>11.62788551988153</v>
+        <v>11.2712270671063</v>
       </c>
       <c r="C163">
-        <v>11.7271079849157</v>
+        <v>11.17594542680757</v>
       </c>
       <c r="D163">
-        <v>11.84636585654271</v>
+        <v>11.1887320334452</v>
       </c>
       <c r="E163">
-        <v>11.40521831325441</v>
+        <v>11.26348883050192</v>
       </c>
       <c r="F163">
-        <v>11.52346807418735</v>
+        <v>11.23227368122397</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>11.56906830860046</v>
+        <v>11.20464086703251</v>
       </c>
       <c r="C164">
-        <v>11.66091027034914</v>
+        <v>11.1080837966763</v>
       </c>
       <c r="D164">
-        <v>11.79790913228597</v>
+        <v>11.12099337132759</v>
       </c>
       <c r="E164">
-        <v>11.33877433971928</v>
+        <v>11.1962978950837</v>
       </c>
       <c r="F164">
-        <v>11.45577302931353</v>
+        <v>11.16434113560228</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>11.509810773488</v>
+        <v>11.13780229661366</v>
       </c>
       <c r="C165">
-        <v>11.59434617507108</v>
+        <v>11.04006212042448</v>
       </c>
       <c r="D165">
-        <v>11.74875893214469</v>
+        <v>11.05310356811885</v>
       </c>
       <c r="E165">
-        <v>11.27197313041493</v>
+        <v>11.12896650248054</v>
       </c>
       <c r="F165">
-        <v>11.38784878648573</v>
+        <v>11.09621245098296</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>11.45013008182536</v>
+        <v>11.07072544521566</v>
       </c>
       <c r="C166">
-        <v>11.52743466428672</v>
+        <v>10.97189324096363</v>
       </c>
       <c r="D166">
-        <v>11.69893415779269</v>
+        <v>10.98507556694616</v>
       </c>
       <c r="E166">
-        <v>11.2048322883889</v>
+        <v>11.06150760381647</v>
       </c>
       <c r="F166">
-        <v>11.31971015780569</v>
+        <v>11.02790159168955</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>11.39004278241076</v>
+        <v>11.0034237788527</v>
       </c>
       <c r="C167">
-        <v>11.46019401115941</v>
+        <v>10.90358942744198</v>
       </c>
       <c r="D167">
-        <v>11.64845325475443</v>
+        <v>10.91692164954066</v>
       </c>
       <c r="E167">
-        <v>11.13736870878749</v>
+        <v>10.99393352891016</v>
       </c>
       <c r="F167">
-        <v>11.25137127821556</v>
+        <v>10.9594219671511</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>11.32956482377612</v>
+        <v>10.93591017690951</v>
       </c>
       <c r="C168">
-        <v>11.39264167920976</v>
+        <v>10.83516233085749</v>
       </c>
       <c r="D168">
-        <v>11.597334199945</v>
+        <v>10.84865355793846</v>
       </c>
       <c r="E168">
-        <v>11.06959860752747</v>
+        <v>10.92625604175502</v>
       </c>
       <c r="F168">
-        <v>11.18284563731781</v>
+        <v>10.89078631576482</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>11.26871160117093</v>
+        <v>10.8681969531016</v>
       </c>
       <c r="C169">
-        <v>11.32479450213541</v>
+        <v>10.76662307397443</v>
       </c>
       <c r="D169">
-        <v>11.54559452848498</v>
+        <v>10.78028245123314</v>
       </c>
       <c r="E169">
-        <v>11.00153752061766</v>
+        <v>10.85848634298315</v>
       </c>
       <c r="F169">
-        <v>11.11414610972388</v>
+        <v>10.8220067846981</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>11.20749793752446</v>
+        <v>10.8002958816054</v>
       </c>
       <c r="C170">
-        <v>11.25666862827695</v>
+        <v>10.69798223889561</v>
       </c>
       <c r="D170">
-        <v>11.4932513503945</v>
+        <v>10.71181897899349</v>
       </c>
       <c r="E170">
-        <v>10.93320037800516</v>
+        <v>10.79063512519527</v>
       </c>
       <c r="F170">
-        <v>11.04528498398951</v>
+        <v>10.75309499563451</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>11.14593814760315</v>
+        <v>10.73221822445331</v>
       </c>
       <c r="C171">
-        <v>11.18827953583023</v>
+        <v>10.62924991844394</v>
       </c>
       <c r="D171">
-        <v>11.44032133879044</v>
+        <v>10.64327328897391</v>
       </c>
       <c r="E171">
-        <v>10.86460147419162</v>
+        <v>10.72271256913368</v>
       </c>
       <c r="F171">
-        <v>10.97627399020647</v>
+        <v>10.68406198759467</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>11.08404602108598</v>
+        <v>10.66397473826406</v>
       </c>
       <c r="C172">
-        <v>11.11964212955651</v>
+        <v>10.56043572682283</v>
       </c>
       <c r="D172">
-        <v>11.38682075857762</v>
+        <v>10.57465505495361</v>
       </c>
       <c r="E172">
-        <v>10.79575454746679</v>
+        <v>10.65472839951338</v>
       </c>
       <c r="F172">
-        <v>10.90712432632015</v>
+        <v>10.61491833466053</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>11.0218348576503</v>
+        <v>10.59557572719297</v>
       </c>
       <c r="C173">
-        <v>11.05077069365239</v>
+        <v>10.49154881719396</v>
       </c>
       <c r="D173">
-        <v>11.33276548206446</v>
+        <v>10.50597350965066</v>
       </c>
       <c r="E173">
-        <v>10.72667276279119</v>
+        <v>10.58669187610514</v>
       </c>
       <c r="F173">
-        <v>10.83784668323603</v>
+        <v>10.54567410156229</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>10.95931748900808</v>
+        <v>10.52703104611229</v>
       </c>
       <c r="C174">
-        <v>10.98167895799669</v>
+        <v>10.42259793132537</v>
       </c>
       <c r="D174">
-        <v>11.27817097423718</v>
+        <v>10.43723743702392</v>
       </c>
       <c r="E174">
-        <v>10.65736875068574</v>
+        <v>10.51861184854945</v>
       </c>
       <c r="F174">
-        <v>10.76845126877427</v>
+        <v>10.47633889702656</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>10.89650627465857</v>
+        <v>10.45835009433187</v>
       </c>
       <c r="C175">
-        <v>10.91238012237893</v>
+        <v>10.35359138040231</v>
       </c>
       <c r="D175">
-        <v>11.22305232242567</v>
+        <v>10.36845524172566</v>
       </c>
       <c r="E175">
-        <v>10.58785463803008</v>
+        <v>10.4504967455923</v>
       </c>
       <c r="F175">
-        <v>10.69894783051654</v>
+        <v>10.40692190645932</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>10.8334131502301</v>
+        <v>10.38954191187618</v>
       </c>
       <c r="C176">
-        <v>10.8428868397385</v>
+        <v>10.28453711087332</v>
       </c>
       <c r="D176">
-        <v>11.16742424953959</v>
+        <v>10.29963491413779</v>
       </c>
       <c r="E176">
-        <v>10.51814204010822</v>
+        <v>10.38235462607687</v>
       </c>
       <c r="F176">
-        <v>10.62934567760113</v>
+        <v>10.33743187482955</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>10.77004960871584</v>
+        <v>10.32061511741817</v>
       </c>
       <c r="C177">
-        <v>10.77321129859467</v>
+        <v>10.21544267553307</v>
       </c>
       <c r="D177">
-        <v>11.11130110027522</v>
+        <v>10.23078410238224</v>
       </c>
       <c r="E177">
-        <v>10.44824212250692</v>
+        <v>10.31419316889436</v>
       </c>
       <c r="F177">
-        <v>10.55965370151329</v>
+        <v>10.2678771825041</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>10.70642674595064</v>
+        <v>10.25157793615263</v>
       </c>
       <c r="C178">
-        <v>10.7033651906271</v>
+        <v>10.14631529751048</v>
       </c>
       <c r="D178">
-        <v>11.05469686968903</v>
+        <v>10.16191008654801</v>
       </c>
       <c r="E178">
-        <v>10.378165572584</v>
+        <v>10.24601971915449</v>
       </c>
       <c r="F178">
-        <v>10.48988039591509</v>
+        <v>10.19826580625508</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>10.64255525819904</v>
+        <v>10.1824382927837</v>
       </c>
       <c r="C179">
-        <v>10.63335974252481</v>
+        <v>10.07716185219267</v>
       </c>
       <c r="D179">
-        <v>10.99762521404496</v>
+        <v>10.09301982425466</v>
       </c>
       <c r="E179">
-        <v>10.30792266282143</v>
+        <v>10.17784127921658</v>
       </c>
       <c r="F179">
-        <v>10.42003387556095</v>
+        <v>10.12860537265265</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>10.57844545581563</v>
+        <v>10.11320371592106</v>
       </c>
       <c r="C180">
-        <v>10.56320577047318</v>
+        <v>10.00798890616574</v>
       </c>
       <c r="D180">
-        <v>10.94009943955788</v>
+        <v>10.02411995733373</v>
       </c>
       <c r="E180">
-        <v>10.23752323890378</v>
+        <v>10.10966455041664</v>
       </c>
       <c r="F180">
-        <v>10.35012189434618</v>
+        <v>10.0589031771023</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>10.51410729273386</v>
+        <v>10.04388142844535</v>
       </c>
       <c r="C181">
-        <v>10.49291362276366</v>
+        <v>9.938802724279004</v>
       </c>
       <c r="D181">
-        <v>10.88213252870081</v>
+        <v>9.955216823327483</v>
       </c>
       <c r="E181">
-        <v>10.16697674295757</v>
+        <v>10.04149592548014</v>
       </c>
       <c r="F181">
-        <v>10.2801518625044</v>
+        <v>9.989166155812889</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>10.44955035480484</v>
+        <v>9.974478360270798</v>
       </c>
       <c r="C182">
-        <v>10.4224932817241</v>
+        <v>9.86960928208398</v>
       </c>
       <c r="D182">
-        <v>10.82373714903897</v>
+        <v>9.886316485366088</v>
       </c>
       <c r="E182">
-        <v>10.09629224394171</v>
+        <v>9.973341524569209</v>
       </c>
       <c r="F182">
-        <v>10.21013086307129</v>
+        <v>9.919400967512951</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>10.38478390069694</v>
+        <v>9.905001101575493</v>
       </c>
       <c r="C183">
-        <v>10.35195432959727</v>
+        <v>9.800414292799129</v>
       </c>
       <c r="D183">
-        <v>10.76492564379689</v>
+        <v>9.817424725042802</v>
       </c>
       <c r="E183">
-        <v>10.02547842689375</v>
+        <v>9.905207191941859</v>
       </c>
       <c r="F183">
-        <v>10.14006566750804</v>
+        <v>9.849613954118784</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>10.31981685098987</v>
+        <v>9.835455996129461</v>
       </c>
       <c r="C184">
-        <v>10.28130596330395</v>
+        <v>9.731223201149227</v>
       </c>
       <c r="D184">
-        <v>10.70571005681517</v>
+        <v>9.748547082718447</v>
       </c>
       <c r="E184">
-        <v>9.95454364050244</v>
+        <v>9.837098523157701</v>
       </c>
       <c r="F184">
-        <v>10.06996275065627</v>
+        <v>9.779811183091839</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>10.25465781186396</v>
+        <v>9.765849106831059</v>
       </c>
       <c r="C185">
-        <v>10.2105570454332</v>
+        <v>9.66204122144533</v>
       </c>
       <c r="D185">
-        <v>10.64610213968216</v>
+        <v>9.679688840818669</v>
       </c>
       <c r="E185">
-        <v>9.883495879429111</v>
+        <v>9.769020868408653</v>
       </c>
       <c r="F185">
-        <v>9.999828305018847</v>
+        <v>9.709998459840804</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>10.18931508777346</v>
+        <v>9.696186220131858</v>
       </c>
       <c r="C186">
-        <v>10.13971608305148</v>
+        <v>9.592873321528742</v>
       </c>
       <c r="D186">
-        <v>10.58611334279872</v>
+        <v>9.61085506621418</v>
       </c>
       <c r="E186">
-        <v>9.812342823671313</v>
+        <v>9.700979351028348</v>
       </c>
       <c r="F186">
-        <v>9.929668254349462</v>
+        <v>9.640181327472334</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>10.12379668013787</v>
+        <v>9.626472901797928</v>
       </c>
       <c r="C187">
-        <v>10.06879126518482</v>
+        <v>9.523724263365915</v>
       </c>
       <c r="D187">
-        <v>10.52575483998024</v>
+        <v>9.542050597284293</v>
       </c>
       <c r="E187">
-        <v>9.741091838951125</v>
+        <v>9.63297887604646</v>
       </c>
       <c r="F187">
-        <v>9.859488266697303</v>
+        <v>9.570365103362851</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>10.05811031780617</v>
+        <v>9.556714470968631</v>
       </c>
       <c r="C188">
-        <v>9.997790473748323</v>
+        <v>9.454598589469125</v>
       </c>
       <c r="D188">
-        <v>10.46503753393564</v>
+        <v>9.473280069417834</v>
       </c>
       <c r="E188">
-        <v>9.66974998686994</v>
+        <v>9.565024142114646</v>
       </c>
       <c r="F188">
-        <v>9.789293766761451</v>
+        <v>9.50055485692581</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>9.992263444617077</v>
+        <v>9.48691601781683</v>
       </c>
       <c r="C189">
-        <v>9.926721268381042</v>
+        <v>9.385500650565625</v>
       </c>
       <c r="D189">
-        <v>10.40397204759432</v>
+        <v>9.404547922720935</v>
       </c>
       <c r="E189">
-        <v>9.598324052673329</v>
+        <v>9.497119653497396</v>
       </c>
       <c r="F189">
-        <v>9.719089947687413</v>
+        <v>9.430755451166071</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>9.926263250243627</v>
+        <v>9.417082438214219</v>
       </c>
       <c r="C190">
-        <v>9.855590948669503</v>
+        <v>9.31643460809299</v>
       </c>
       <c r="D190">
-        <v>10.34256874835584</v>
+        <v>9.335858405646755</v>
       </c>
       <c r="E190">
-        <v>9.526820533552954</v>
+        <v>9.429269727250659</v>
       </c>
       <c r="F190">
-        <v>9.648881782412221</v>
+        <v>9.360971544186794</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>9.86011666681739</v>
+        <v>9.347218400907918</v>
       </c>
       <c r="C191">
-        <v>9.784406525338294</v>
+        <v>9.247404442911844</v>
       </c>
       <c r="D191">
-        <v>10.2808377520145</v>
+        <v>9.267215598005262</v>
       </c>
       <c r="E191">
-        <v>9.45524567636523</v>
+        <v>9.361478507248869</v>
       </c>
       <c r="F191">
-        <v>9.578674034439899</v>
+        <v>9.291207583231712</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>9.793830379144113</v>
+        <v>9.277328390285367</v>
       </c>
       <c r="C192">
-        <v>9.71317474304416</v>
+        <v>9.178413972421058</v>
       </c>
       <c r="D192">
-        <v>10.21878891485317</v>
+        <v>9.198623403014897</v>
       </c>
       <c r="E192">
-        <v>9.383605465217478</v>
+        <v>9.293749967954181</v>
       </c>
       <c r="F192">
-        <v>9.508471268129316</v>
+        <v>9.221467846311258</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>9.72741084292924</v>
+        <v>9.207416716145826</v>
       </c>
       <c r="C193">
-        <v>9.64190210951125</v>
+        <v>9.109466847165532</v>
       </c>
       <c r="D193">
-        <v>10.15643185694061</v>
+        <v>9.130085575311229</v>
       </c>
       <c r="E193">
-        <v>9.311905646664808</v>
+        <v>9.226087929545413</v>
       </c>
       <c r="F193">
-        <v>9.438277858510926</v>
+        <v>9.151756416792026</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>9.660864277782199</v>
+        <v>9.137487477196464</v>
       </c>
       <c r="C194">
-        <v>9.570594868786452</v>
+        <v>9.040566574325753</v>
       </c>
       <c r="D194">
-        <v>10.09377596477726</v>
+        <v>9.061605709646621</v>
       </c>
       <c r="E194">
-        <v>9.240151735757014</v>
+        <v>9.158496059225227</v>
       </c>
       <c r="F194">
-        <v>9.368098000692674</v>
+        <v>9.082077218666976</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>9.594196693395611</v>
+        <v>9.067544632309124</v>
       </c>
       <c r="C195">
-        <v>9.4992590535931</v>
+        <v>8.971716509064073</v>
       </c>
       <c r="D195">
-        <v>10.03083038443612</v>
+        <v>8.993187267480273</v>
       </c>
       <c r="E195">
-        <v>9.168349018947493</v>
+        <v>9.090977884850773</v>
       </c>
       <c r="F195">
-        <v>9.297935718821236</v>
+        <v>9.012434015148777</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>9.527413882346355</v>
+        <v>8.997591970136057</v>
       </c>
       <c r="C196">
-        <v>9.427900469352645</v>
+        <v>8.902919879159079</v>
       </c>
       <c r="D196">
-        <v>9.967604043622517</v>
+        <v>8.924833570681626</v>
       </c>
       <c r="E196">
-        <v>9.096502577950735</v>
+        <v>9.02353679367617</v>
       </c>
       <c r="F196">
-        <v>9.227794874635261</v>
+        <v>8.942830409930142</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>9.460521436163225</v>
+        <v>8.927633113607953</v>
       </c>
       <c r="C197">
-        <v>9.35652470287666</v>
+        <v>8.83417977715394</v>
       </c>
       <c r="D197">
-        <v>9.904105653291827</v>
+        <v>8.856547815458171</v>
       </c>
       <c r="E197">
-        <v>9.024617279342557</v>
+        <v>8.956176058438748</v>
       </c>
       <c r="F197">
-        <v>9.157679175657425</v>
+        <v>8.873269873258232</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>9.393524752548174</v>
+        <v>8.857671553734605</v>
       </c>
       <c r="C198">
-        <v>9.285137152340011</v>
+        <v>8.76549917848479</v>
       </c>
       <c r="D198">
-        <v>9.840343701645807</v>
+        <v>8.788333079750215</v>
       </c>
       <c r="E198">
-        <v>8.952697803230008</v>
+        <v>8.88889883036704</v>
       </c>
       <c r="F198">
-        <v>9.087592183015444</v>
+        <v>8.803755727318594</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>9.326429035420352</v>
+        <v>8.787710636132939</v>
       </c>
       <c r="C199">
-        <v>9.213743010629972</v>
+        <v>8.69688094227133</v>
       </c>
       <c r="D199">
-        <v>9.776326475161765</v>
+        <v>8.72019232407078</v>
       </c>
       <c r="E199">
-        <v>8.880748635313225</v>
+        <v>8.821708128056937</v>
       </c>
       <c r="F199">
-        <v>9.017537318906562</v>
+        <v>8.734291173191648</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>9.259239314119693</v>
+        <v>8.717753571961389</v>
       </c>
       <c r="C200">
-        <v>9.142347292641464</v>
+        <v>8.628327817833613</v>
       </c>
       <c r="D200">
-        <v>9.712062059274823</v>
+        <v>8.652128407364112</v>
       </c>
       <c r="E200">
-        <v>8.80877408258068</v>
+        <v>8.754606897366262</v>
       </c>
       <c r="F200">
-        <v>8.947517873741154</v>
+        <v>8.664879287428342</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>9.19196043529884</v>
+        <v>8.647803455145064</v>
       </c>
       <c r="C201">
-        <v>9.070954839791918</v>
+        <v>8.559842455199082</v>
       </c>
       <c r="D201">
-        <v>9.647558332951457</v>
+        <v>8.584144081188422</v>
       </c>
       <c r="E201">
-        <v>8.736778281671983</v>
+        <v>8.687597979747176</v>
       </c>
       <c r="F201">
-        <v>8.877537012983989</v>
+        <v>8.595523025055382</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>9.12459708368347</v>
+        <v>8.577863245985904</v>
       </c>
       <c r="C202">
-        <v>8.999570313827766</v>
+        <v>8.491427403268899</v>
       </c>
       <c r="D202">
-        <v>9.582822988964583</v>
+        <v>8.51624200836288</v>
       </c>
       <c r="E202">
-        <v>8.664765198022586</v>
+        <v>8.620684072868315</v>
       </c>
       <c r="F202">
-        <v>8.807597783675305</v>
+        <v>8.526225240621294</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>9.057153778829601</v>
+        <v>8.507935795904748</v>
       </c>
       <c r="C203">
-        <v>8.928198229139918</v>
+        <v>8.423085124878439</v>
       </c>
       <c r="D203">
-        <v>9.517863533668876</v>
+        <v>8.448424755795845</v>
       </c>
       <c r="E203">
-        <v>8.592738645753535</v>
+        <v>8.553867843738727</v>
       </c>
       <c r="F203">
-        <v>8.737703120684628</v>
+        <v>8.456988673443453</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>8.989634882688128</v>
+        <v>8.438023854433768</v>
       </c>
       <c r="C204">
-        <v>8.856842938852791</v>
+        <v>8.354817991504797</v>
       </c>
       <c r="D204">
-        <v>9.452687282078962</v>
+        <v>8.38069481077261</v>
       </c>
       <c r="E204">
-        <v>8.520702278744713</v>
+        <v>8.487151864232839</v>
       </c>
       <c r="F204">
-        <v>8.667855852688321</v>
+        <v>8.38781597358016</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>8.922044610766076</v>
+        <v>8.368130050368965</v>
       </c>
       <c r="C205">
-        <v>8.785508648791762</v>
+        <v>8.286628298981208</v>
       </c>
       <c r="D205">
-        <v>9.38730137742189</v>
+        <v>8.313054578554601</v>
       </c>
       <c r="E205">
-        <v>8.44865961245465</v>
+        <v>8.420538586040685</v>
       </c>
       <c r="F205">
-        <v>8.598058707897517</v>
+        <v>8.318709695127339</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>8.854387028101584</v>
+        <v>8.298256929504843</v>
       </c>
       <c r="C206">
-        <v>8.714199432968599</v>
+        <v>8.21851825822562</v>
       </c>
       <c r="D206">
-        <v>9.321712790105135</v>
+        <v>8.245506389753528</v>
       </c>
       <c r="E206">
-        <v>8.376614018881858</v>
+        <v>8.354030426493519</v>
       </c>
       <c r="F206">
-        <v>8.528314319537699</v>
+        <v>8.249672300740013</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>8.786666065970749</v>
+        <v>8.2284069396267</v>
       </c>
       <c r="C207">
-        <v>8.642919219923986</v>
+        <v>8.150490015909281</v>
       </c>
       <c r="D207">
-        <v>9.255928313362455</v>
+        <v>8.178052504974259</v>
       </c>
       <c r="E207">
-        <v>8.304568736227179</v>
+        <v>8.287629726301716</v>
       </c>
       <c r="F207">
-        <v>8.458625231092102</v>
+        <v>8.180706177435885</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>8.718885517212904</v>
+        <v>8.158582429900045</v>
       </c>
       <c r="C208">
-        <v>8.571671822527298</v>
+        <v>8.082545655044164</v>
       </c>
       <c r="D208">
-        <v>9.189954581955293</v>
+        <v>8.110695114327131</v>
       </c>
       <c r="E208">
-        <v>8.232526877674889</v>
+        <v>8.221338743401255</v>
       </c>
       <c r="F208">
-        <v>8.388993901340966</v>
+        <v>8.111813625790623</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>8.651049047126525</v>
+        <v>8.088785676724395</v>
       </c>
       <c r="C209">
-        <v>8.500460928823298</v>
+        <v>8.014687188609477</v>
       </c>
       <c r="D209">
-        <v>9.123798070500115</v>
+        <v>8.043436355401735</v>
       </c>
       <c r="E209">
-        <v>8.160491428913909</v>
+        <v>8.155159684101802</v>
       </c>
       <c r="F209">
-        <v>8.319422709181199</v>
+        <v>8.042996880206118</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>8.583160196006908</v>
+        <v>8.019018870836756</v>
       </c>
       <c r="C210">
-        <v>8.429290107577058</v>
+        <v>7.946916566498009</v>
       </c>
       <c r="D210">
-        <v>9.057465089703308</v>
+        <v>7.976278310451727</v>
       </c>
       <c r="E210">
-        <v>8.088465264040265</v>
+        <v>8.089094701881379</v>
       </c>
       <c r="F210">
-        <v>8.249913958247472</v>
+        <v>7.97425810323028</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>8.515222379289028</v>
+        <v>7.949284124162779</v>
       </c>
       <c r="C211">
-        <v>8.358162826235365</v>
+        <v>7.879235704494717</v>
       </c>
       <c r="D211">
-        <v>8.990961804138928</v>
+        <v>7.909222984749134</v>
       </c>
       <c r="E211">
-        <v>8.016451139020763</v>
+        <v>8.02314588664839</v>
       </c>
       <c r="F211">
-        <v>8.180469881351263</v>
+        <v>7.905599390727597</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>8.44723890650193</v>
+        <v>7.879583483336157</v>
       </c>
       <c r="C212">
-        <v>8.287082440646415</v>
+        <v>7.811646463824402</v>
       </c>
       <c r="D212">
-        <v>8.924294230079573</v>
+        <v>7.842272364196558</v>
       </c>
       <c r="E212">
-        <v>7.944451706842792</v>
+        <v>7.957315278962499</v>
       </c>
       <c r="F212">
-        <v>8.111092644745915</v>
+        <v>7.837022782676292</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>8.379212977942249</v>
+        <v>7.809918920507513</v>
       </c>
       <c r="C213">
-        <v>8.216052212362159</v>
+        <v>7.744150618087108</v>
       </c>
       <c r="D213">
-        <v>8.857468232260246</v>
+        <v>7.77542838559558</v>
       </c>
       <c r="E213">
-        <v>7.872469515714274</v>
+        <v>7.891604880975819</v>
       </c>
       <c r="F213">
-        <v>8.041784352212529</v>
+        <v>7.76853025614375</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>8.311147669698171</v>
+        <v>7.740292345799552</v>
       </c>
       <c r="C214">
-        <v>8.145075310365863</v>
+        <v>7.676749946282187</v>
       </c>
       <c r="D214">
-        <v>8.790489540773654</v>
+        <v>7.708692925313282</v>
       </c>
       <c r="E214">
-        <v>7.800507014330658</v>
+        <v>7.826016645659214</v>
       </c>
       <c r="F214">
-        <v>7.972547048995015</v>
+        <v>7.700123740783864</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>8.243045971699276</v>
+        <v>7.67070561203075</v>
       </c>
       <c r="C215">
-        <v>8.074154808885687</v>
+        <v>7.609446175370994</v>
       </c>
       <c r="D215">
-        <v>8.72336374848769</v>
+        <v>7.642067816649377</v>
       </c>
       <c r="E215">
-        <v>7.728566559408248</v>
+        <v>7.760552482789109</v>
       </c>
       <c r="F215">
-        <v>7.903382725583846</v>
+        <v>7.631805114334345</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>8.174910782372214</v>
+        <v>7.601160506410994</v>
       </c>
       <c r="C216">
-        <v>8.00329370547437</v>
+        <v>7.542240973823668</v>
       </c>
       <c r="D216">
-        <v>8.656096308269767</v>
+        <v>7.575554883127378</v>
       </c>
       <c r="E216">
-        <v>7.656650410310853</v>
+        <v>7.695214275800441</v>
       </c>
       <c r="F216">
-        <v>7.83429332135605</v>
+        <v>7.563576207419779</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>8.106744900808328</v>
+        <v>7.531658770344023</v>
       </c>
       <c r="C217">
-        <v>7.93249491384849</v>
+        <v>7.475135984426106</v>
       </c>
       <c r="D217">
-        <v>8.588692549062786</v>
+        <v>7.50915590541477</v>
       </c>
       <c r="E217">
-        <v>7.584760749674777</v>
+        <v>7.630003868367322</v>
       </c>
       <c r="F217">
-        <v>7.765280728082483</v>
+        <v>7.495438811593939</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>8.038551002101078</v>
+        <v>7.462202092570799</v>
       </c>
       <c r="C218">
-        <v>7.861761272692404</v>
+        <v>7.408132828956592</v>
       </c>
       <c r="D218">
-        <v>8.521157672950508</v>
+        <v>7.44287260442148</v>
       </c>
       <c r="E218">
-        <v>7.512899679052843</v>
+        <v>7.564923060466196</v>
       </c>
       <c r="F218">
-        <v>7.696346793304204</v>
+        <v>7.427394674277535</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7.970331720473896</v>
+        <v>7.392792108902461</v>
       </c>
       <c r="C219">
-        <v>7.791095553885151</v>
+        <v>7.341233091851084</v>
       </c>
       <c r="D219">
-        <v>8.453496752816909</v>
+        <v>7.376706708411866</v>
       </c>
       <c r="E219">
-        <v>7.441069209246651</v>
+        <v>7.499973641395634</v>
       </c>
       <c r="F219">
-        <v>7.627493323598505</v>
+        <v>7.359445511012382</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7.90208959504576</v>
+        <v>7.323430417533041</v>
       </c>
       <c r="C220">
-        <v>7.720500456308218</v>
+        <v>7.274438320051421</v>
       </c>
       <c r="D220">
-        <v>8.385714747609388</v>
+        <v>7.310659911002182</v>
       </c>
       <c r="E220">
-        <v>7.369271283211182</v>
+        <v>7.435157368607748</v>
       </c>
       <c r="F220">
-        <v>7.558722087725871</v>
+        <v>7.291593001936232</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7.833827067214044</v>
+        <v>7.254118571670199</v>
       </c>
       <c r="C221">
-        <v>7.649978622370021</v>
+        <v>7.207750052865667</v>
       </c>
       <c r="D221">
-        <v>8.317816499136923</v>
+        <v>7.244733872280722</v>
       </c>
       <c r="E221">
-        <v>7.297507783886994</v>
+        <v>7.370475965132179</v>
       </c>
       <c r="F221">
-        <v>7.490034819671577</v>
+        <v>7.223838796265754</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7.765546502616178</v>
+        <v>7.184858083550241</v>
       </c>
       <c r="C222">
-        <v>7.57953263357632</v>
+        <v>7.141169804119286</v>
       </c>
       <c r="D222">
-        <v>8.249806730167425</v>
+        <v>7.178930236495159</v>
       </c>
       <c r="E222">
-        <v>7.225780522407852</v>
+        <v>7.305931145551889</v>
       </c>
       <c r="F222">
-        <v>7.421433221592665</v>
+        <v>7.156184517688349</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7.697250210205133</v>
+        <v>7.115650433790465</v>
       </c>
       <c r="C223">
-        <v>7.509165014492813</v>
+        <v>7.074699066266969</v>
       </c>
       <c r="D223">
-        <v>8.181690058837651</v>
+        <v>7.113250636082604</v>
       </c>
       <c r="E223">
-        <v>7.154091211173877</v>
+        <v>7.241524602394598</v>
       </c>
       <c r="F223">
-        <v>7.352918966672555</v>
+        <v>7.088631758813587</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7.62894042207609</v>
+        <v>7.046497065542034</v>
       </c>
       <c r="C224">
-        <v>7.438878242800074</v>
+        <v>7.008339320590093</v>
       </c>
       <c r="D224">
-        <v>8.113470995289305</v>
+        <v>7.047696685525551</v>
       </c>
       <c r="E224">
-        <v>7.082441544671973</v>
+        <v>7.177258000747773</v>
       </c>
       <c r="F224">
-        <v>7.284493701884748</v>
+        <v>7.021182097178278</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7.560619282437155</v>
+        <v>6.977399392176624</v>
       </c>
       <c r="C225">
-        <v>7.368674744350333</v>
+        <v>6.94209203588598</v>
       </c>
       <c r="D225">
-        <v>8.045153940227127</v>
+        <v>6.982269984746755</v>
       </c>
       <c r="E225">
-        <v>7.010833147744774</v>
+        <v>7.113133001860824</v>
       </c>
       <c r="F225">
-        <v>7.216159050680361</v>
+        <v>6.95383709091046</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7.492288893087829</v>
+        <v>6.908358800608052</v>
       </c>
       <c r="C226">
-        <v>7.298556903595864</v>
+        <v>6.875958663294584</v>
       </c>
       <c r="D226">
-        <v>7.976743198386814</v>
+        <v>6.916972128047248</v>
       </c>
       <c r="E226">
-        <v>6.939267573860712</v>
+        <v>7.049151251623915</v>
       </c>
       <c r="F226">
-        <v>7.14791661560243</v>
+        <v>6.886598278781296</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7.423951287470164</v>
+        <v>6.839376647555983</v>
       </c>
       <c r="C227">
-        <v>7.228527064587847</v>
+        <v>6.80994064186537</v>
       </c>
       <c r="D227">
-        <v>7.908242975123735</v>
+        <v>6.85180470216984</v>
       </c>
       <c r="E227">
-        <v>6.867746323926525</v>
+        <v>6.985314380040327</v>
       </c>
       <c r="F227">
-        <v>7.079767980827198</v>
+        <v>6.819467177592949</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7.355608435722447</v>
+        <v>6.770454270116785</v>
       </c>
       <c r="C228">
-        <v>7.158587531143707</v>
+        <v>6.744039414498675</v>
       </c>
       <c r="D228">
-        <v>7.839657375611351</v>
+        <v>6.786769274280008</v>
       </c>
       <c r="E228">
-        <v>6.796270863548077</v>
+        <v>6.921624012602757</v>
       </c>
       <c r="F228">
-        <v>7.011714714645925</v>
+        <v>6.75244530804947</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7.287262245990652</v>
+        <v>6.701592983278535</v>
       </c>
       <c r="C229">
-        <v>7.088740576639797</v>
+        <v>6.678256414842419</v>
       </c>
       <c r="D229">
-        <v>7.770990416918711</v>
+        <v>6.721867418456901</v>
       </c>
       <c r="E229">
-        <v>6.724842604360476</v>
+        <v>6.858081768357028</v>
       </c>
       <c r="F229">
-        <v>6.943758371885531</v>
+        <v>6.685534179145186</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7.21891458300183</v>
+        <v>6.632794080861247</v>
       </c>
       <c r="C230">
-        <v>7.018988441316879</v>
+        <v>6.612593059503316</v>
       </c>
       <c r="D230">
-        <v>7.70224602508635</v>
+        <v>6.657100707546519</v>
       </c>
       <c r="E230">
-        <v>6.653462896928674</v>
+        <v>6.79468925666748</v>
       </c>
       <c r="F230">
-        <v>6.875900496279653</v>
+        <v>6.618735279073939</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7.150567257194246</v>
+        <v>6.564058843110626</v>
       </c>
       <c r="C231">
-        <v>6.949333337819902</v>
+        <v>6.547050779487245</v>
       </c>
       <c r="D231">
-        <v>7.633428034704763</v>
+        <v>6.592470708251676</v>
       </c>
       <c r="E231">
-        <v>6.582133066744048</v>
+        <v>6.73144808501315</v>
       </c>
       <c r="F231">
-        <v>6.808142622790042</v>
+        <v>6.55205008965203</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7.082222021528608</v>
+        <v>6.495388534556342</v>
       </c>
       <c r="C232">
-        <v>6.879777455774074</v>
+        <v>6.481631001578609</v>
       </c>
       <c r="D232">
-        <v>7.564540199699032</v>
+        <v>6.527978981518487</v>
       </c>
       <c r="E232">
-        <v>6.51085439374724</v>
+        <v>6.668359861656036</v>
       </c>
       <c r="F232">
-        <v>6.740486279883618</v>
+        <v>6.485480107354403</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7.013880589695131</v>
+        <v>6.42678440666246</v>
       </c>
       <c r="C233">
-        <v>6.810322960278831</v>
+        <v>6.416335156482666</v>
       </c>
       <c r="D233">
-        <v>7.495586190914628</v>
+        <v>6.463627102669119</v>
       </c>
       <c r="E233">
-        <v>6.439628115260506</v>
+        <v>6.605426191233612</v>
       </c>
       <c r="F233">
-        <v>6.67293299177464</v>
+        <v>6.419026822329665</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6.945544632292814</v>
+        <v>6.358247702845549</v>
       </c>
       <c r="C234">
-        <v>6.74097200039364</v>
+        <v>6.351164679804369</v>
       </c>
       <c r="D234">
-        <v>7.426569596091021</v>
+        <v>6.399416647874895</v>
       </c>
       <c r="E234">
-        <v>6.368455430845756</v>
+        <v>6.542648678811773</v>
       </c>
       <c r="F234">
-        <v>6.605484280632438</v>
+        <v>6.352691710540379</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6.877215775242469</v>
+        <v>6.289779657139451</v>
       </c>
       <c r="C235">
-        <v>6.671726708328046</v>
+        <v>6.286121014332761</v>
       </c>
       <c r="D235">
-        <v>7.357493929369531</v>
+        <v>6.335349200997546</v>
       </c>
       <c r="E235">
-        <v>6.297337513127327</v>
+        <v>6.480028936220836</v>
       </c>
       <c r="F235">
-        <v>6.538141668758531</v>
+        <v>6.286476262341569</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6.808895593310168</v>
+        <v>6.221381498278933</v>
       </c>
       <c r="C236">
-        <v>6.602589202578849</v>
+        <v>6.221205609747773</v>
       </c>
       <c r="D236">
-        <v>7.288362629433177</v>
+        <v>6.271426354229043</v>
       </c>
       <c r="E236">
-        <v>6.226275501454912</v>
+        <v>6.417568577011341</v>
       </c>
       <c r="F236">
-        <v>6.470906680742169</v>
+        <v>6.220381975911327</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6.740585638862474</v>
+        <v>6.153054452182199</v>
       </c>
       <c r="C237">
-        <v>6.533561593239114</v>
+        <v>6.156419920776497</v>
       </c>
       <c r="D237">
-        <v>7.219179059905188</v>
+        <v>6.207649710976919</v>
       </c>
       <c r="E237">
-        <v>6.155270498314555</v>
+        <v>6.355269217682029</v>
       </c>
       <c r="F237">
-        <v>6.403780845595707</v>
+        <v>6.154410354664497</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6.672287424351859</v>
+        <v>6.08479974207516</v>
       </c>
       <c r="C238">
-        <v>6.464645981489914</v>
+        <v>6.091765421928144</v>
       </c>
       <c r="D238">
-        <v>7.149946517564043</v>
+        <v>6.144020882559916</v>
       </c>
       <c r="E238">
-        <v>6.084323587915129</v>
+        <v>6.293132486511211</v>
       </c>
       <c r="F238">
-        <v>6.336765698875112</v>
+        <v>6.088562904846486</v>
       </c>
     </row>
   </sheetData>
